--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>&lt;val1&gt;はレベル&lt;val2&gt;になった</t>
+  </si>
+  <si>
+    <t>アイテムがいっぱいなので拾えなかった</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;の上に乗った</t>
   </si>
   <si>
     <t>ダミー</t>
@@ -1423,11 +1429,11 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.8906" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.8984" style="1" customWidth="1"/>
     <col min="3" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1">
+    <row r="1" ht="14.95" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -1435,7 +1441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="20" customHeight="1">
+    <row r="2" ht="14.95" customHeight="1">
       <c r="A2" t="s" s="3">
         <v>2</v>
       </c>
@@ -1544,7 +1550,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -1552,7 +1558,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -1560,7 +1566,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -1568,7 +1574,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -1576,7 +1582,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -1584,7 +1590,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -1592,7 +1598,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -1600,7 +1606,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -1608,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -1616,7 +1622,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -1624,7 +1630,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -1632,7 +1638,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -1640,7 +1646,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -1648,7 +1654,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -1656,7 +1662,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -1664,7 +1670,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -1672,7 +1678,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -1680,7 +1686,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -1688,7 +1694,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1696,7 +1702,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>&lt;val1&gt;の上に乗った</t>
+  </si>
+  <si>
+    <t>カーソルキー:移動 / Z:攻撃 / X:メニュー / C+カーソルキー:振り向く</t>
+  </si>
+  <si>
+    <t>カーソルキー:項目の移動 / Z:選択 / X:キャンセル</t>
+  </si>
+  <si>
+    <t>カーソルキー:項目の移動 / Z:決定</t>
   </si>
   <si>
     <t>ダミー</t>
@@ -1429,7 +1438,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.8984" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.8359" style="1" customWidth="1"/>
     <col min="3" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1566,7 +1575,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -1574,7 +1583,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -1582,7 +1591,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -1590,7 +1599,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -1598,7 +1607,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -1606,7 +1615,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -1614,7 +1623,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -1622,7 +1631,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -1630,7 +1639,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -1638,7 +1647,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -1646,7 +1655,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -1654,7 +1663,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -1662,7 +1671,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -1670,7 +1679,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -1678,7 +1687,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -1686,7 +1695,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -1694,7 +1703,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1702,7 +1711,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -72,6 +72,27 @@
   </si>
   <si>
     <t>カーソルキー:項目の移動 / Z:決定</t>
+  </si>
+  <si>
+    <t>使う</t>
+  </si>
+  <si>
+    <t>装備</t>
+  </si>
+  <si>
+    <t>外す</t>
+  </si>
+  <si>
+    <t>投げる</t>
+  </si>
+  <si>
+    <t>置く</t>
+  </si>
+  <si>
+    <t>交換</t>
+  </si>
+  <si>
+    <t>拾う</t>
   </si>
   <si>
     <t>ダミー</t>
@@ -1431,7 +1452,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1599,7 +1620,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -1607,7 +1628,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -1615,7 +1636,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -1623,7 +1644,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -1631,7 +1652,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -1639,7 +1660,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -1647,7 +1668,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -1655,7 +1676,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -1663,7 +1684,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -1671,7 +1692,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -1679,7 +1700,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -1687,7 +1708,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -1695,7 +1716,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -1703,7 +1724,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1711,7 +1732,135 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>20</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1">
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1">
+      <c r="A49" s="3">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s" s="4">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -65,6 +65,33 @@
     <t>&lt;val1&gt;の上に乗った</t>
   </si>
   <si>
+    <t>&lt;val1&gt;を地面に置いた</t>
+  </si>
+  <si>
+    <t>ダミー</t>
+  </si>
+  <si>
+    <t>使う</t>
+  </si>
+  <si>
+    <t>装備</t>
+  </si>
+  <si>
+    <t>外す</t>
+  </si>
+  <si>
+    <t>投げる</t>
+  </si>
+  <si>
+    <t>置く</t>
+  </si>
+  <si>
+    <t>交換</t>
+  </si>
+  <si>
+    <t>拾う</t>
+  </si>
+  <si>
     <t>カーソルキー:移動 / Z:攻撃 / X:メニュー / C+カーソルキー:振り向く</t>
   </si>
   <si>
@@ -72,30 +99,6 @@
   </si>
   <si>
     <t>カーソルキー:項目の移動 / Z:決定</t>
-  </si>
-  <si>
-    <t>使う</t>
-  </si>
-  <si>
-    <t>装備</t>
-  </si>
-  <si>
-    <t>外す</t>
-  </si>
-  <si>
-    <t>投げる</t>
-  </si>
-  <si>
-    <t>置く</t>
-  </si>
-  <si>
-    <t>交換</t>
-  </si>
-  <si>
-    <t>拾う</t>
-  </si>
-  <si>
-    <t>ダミー</t>
   </si>
 </sst>
 </file>
@@ -1604,7 +1607,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -1612,7 +1615,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -1620,7 +1623,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -1628,7 +1631,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -1636,7 +1639,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -1644,7 +1647,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -1652,7 +1655,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -1660,7 +1663,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -1668,7 +1671,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -1676,7 +1679,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -1684,7 +1687,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -1692,7 +1695,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -1700,7 +1703,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -1708,7 +1711,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -1716,7 +1719,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -1724,7 +1727,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1732,7 +1735,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1740,7 +1743,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1748,7 +1751,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -1756,7 +1759,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -1764,7 +1767,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -1772,7 +1775,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -1780,7 +1783,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -1788,7 +1791,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -1796,7 +1799,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -1812,7 +1815,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -1820,7 +1823,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -1828,7 +1831,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -1836,7 +1839,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -1844,7 +1847,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -1852,7 +1855,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -1860,7 +1863,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -6,7 +6,7 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId4"/>
+    <sheet name="message" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>&lt;val1&gt;を地面に置いた</t>
+  </si>
+  <si>
+    <t>アイテムを何も持っていない</t>
   </si>
   <si>
     <t>ダミー</t>
@@ -1607,7 +1610,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -1615,7 +1618,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -1623,7 +1626,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -1631,7 +1634,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -1639,7 +1642,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -1647,7 +1650,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -1655,7 +1658,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -1663,7 +1666,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -1671,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -1679,7 +1682,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -1687,7 +1690,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -1695,7 +1698,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -1703,7 +1706,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -1711,7 +1714,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -1719,7 +1722,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -1727,7 +1730,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1735,7 +1738,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1743,7 +1746,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1751,7 +1754,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -1759,7 +1762,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -1767,7 +1770,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -1775,7 +1778,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -1783,7 +1786,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -1791,7 +1794,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -1799,7 +1802,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -1807,7 +1810,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -1815,7 +1818,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -1823,7 +1826,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -1831,7 +1834,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -1839,7 +1842,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -1847,7 +1850,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -1855,7 +1858,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -1863,7 +1866,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>アイテムを何も持っていない</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;を地面に置くことはできない</t>
   </si>
   <si>
     <t>ダミー</t>
@@ -1618,7 +1621,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -1626,7 +1629,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -1634,7 +1637,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -1642,7 +1645,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -1650,7 +1653,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -1658,7 +1661,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -1666,7 +1669,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -1674,7 +1677,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -1682,7 +1685,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -1690,7 +1693,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -1698,7 +1701,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -1706,7 +1709,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -1714,7 +1717,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -1722,7 +1725,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -1730,7 +1733,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1738,7 +1741,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1746,7 +1749,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1754,7 +1757,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -1762,7 +1765,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -1770,7 +1773,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -1778,7 +1781,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -1786,7 +1789,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -1794,7 +1797,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -1802,7 +1805,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -1810,7 +1813,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -1818,7 +1821,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -1826,7 +1829,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -1834,7 +1837,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -1842,7 +1845,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -1850,7 +1853,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -1858,7 +1861,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -1866,7 +1869,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -71,7 +71,7 @@
     <t>アイテムを何も持っていない</t>
   </si>
   <si>
-    <t>&lt;val1&gt;を地面に置くことはできない</t>
+    <t>&lt;val1&gt;は砕け散った</t>
   </si>
   <si>
     <t>ダミー</t>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>&lt;val1&gt;は砕け散った</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は壁に当たって地面に落ちた</t>
   </si>
   <si>
     <t>ダミー</t>
@@ -1629,7 +1632,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -1637,7 +1640,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -1645,7 +1648,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -1653,7 +1656,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -1661,7 +1664,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -1669,7 +1672,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -1677,7 +1680,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -1685,7 +1688,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -1693,7 +1696,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -1701,7 +1704,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -1709,7 +1712,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -1717,7 +1720,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -1725,7 +1728,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -1733,7 +1736,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1741,7 +1744,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1749,7 +1752,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1757,7 +1760,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -1765,7 +1768,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -1773,7 +1776,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -1781,7 +1784,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -1789,7 +1792,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -1797,7 +1800,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -1805,7 +1808,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -1813,7 +1816,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -1821,7 +1824,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -1829,7 +1832,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -1837,7 +1840,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -1845,7 +1848,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -1853,7 +1856,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -1861,7 +1864,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -1869,7 +1872,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>拾う</t>
+  </si>
+  <si>
+    <t>足下</t>
+  </si>
+  <si>
+    <t>何も持っていない</t>
   </si>
   <si>
     <t>カーソルキー:移動 / Z:攻撃 / X:メニュー / C+カーソルキー:振り向く</t>
@@ -1464,7 +1470,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1680,7 +1686,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -1688,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -1696,7 +1702,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -1704,7 +1710,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -1712,7 +1718,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -1720,7 +1726,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -1728,7 +1734,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -1744,7 +1750,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1752,7 +1758,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1760,7 +1766,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -1768,7 +1774,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -1776,7 +1782,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -1784,7 +1790,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -1792,7 +1798,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -1808,7 +1814,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -1816,7 +1822,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -1824,7 +1830,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -1872,6 +1878,134 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1">
+      <c r="A51" s="3">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1">
+      <c r="A53" s="3">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1">
+      <c r="A55" s="3">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" ht="20" customHeight="1">
+      <c r="A56" s="3">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" ht="20" customHeight="1">
+      <c r="A57" s="3">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" ht="20" customHeight="1">
+      <c r="A58" s="3">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" ht="20" customHeight="1">
+      <c r="A59" s="3">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" ht="20" customHeight="1">
+      <c r="A60" s="3">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" ht="20" customHeight="1">
+      <c r="A61" s="3">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" ht="20" customHeight="1">
+      <c r="A62" s="3">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" ht="20" customHeight="1">
+      <c r="A63" s="3">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" ht="20" customHeight="1">
+      <c r="A64" s="3">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" ht="20" customHeight="1">
+      <c r="A65" s="3">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" ht="20" customHeight="1">
+      <c r="A66" s="3">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s" s="4">
         <v>21</v>
       </c>
     </row>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>&lt;val1&gt;は壁に当たって地面に落ちた</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は&lt;val2&gt;を投げた</t>
   </si>
   <si>
     <t>ダミー</t>
@@ -1646,7 +1649,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -1654,7 +1657,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -1662,7 +1665,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -1670,7 +1673,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -1678,7 +1681,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -1686,7 +1689,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -1694,7 +1697,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -1702,7 +1705,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -1710,7 +1713,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -1718,7 +1721,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -1726,7 +1729,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -1734,7 +1737,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -1742,7 +1745,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1750,7 +1753,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1758,7 +1761,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1766,7 +1769,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -1774,7 +1777,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -1782,7 +1785,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -1790,7 +1793,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -1798,7 +1801,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -1806,7 +1809,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -1814,7 +1817,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -1822,7 +1825,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -1830,7 +1833,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -1838,7 +1841,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -1846,7 +1849,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -1854,7 +1857,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -1862,7 +1865,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -1870,7 +1873,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -1878,7 +1881,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -1886,7 +1889,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -1894,7 +1897,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -1902,7 +1905,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -1910,7 +1913,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -1918,7 +1921,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -1926,7 +1929,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -1934,7 +1937,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -1942,7 +1945,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -1950,7 +1953,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -1958,7 +1961,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -1966,7 +1969,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -1974,7 +1977,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -1982,7 +1985,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -1990,7 +1993,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -1998,7 +2001,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2006,7 +2009,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -113,10 +113,13 @@
     <t>カーソルキー:移動 / Z:攻撃 / X:メニュー / C+カーソルキー:振り向く</t>
   </si>
   <si>
-    <t>カーソルキー:項目の移動 / Z:選択 / X:キャンセル</t>
+    <t>上下キー:項目の移動 / 左右キー:ページ移動 / Z:選択 / X:キャンセル</t>
   </si>
   <si>
     <t>カーソルキー:項目の移動 / Z:決定</t>
+  </si>
+  <si>
+    <t>上下キー:項目の移動 / Z:選択 / X:キャンセル</t>
   </si>
 </sst>
 </file>
@@ -1969,7 +1972,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t>&lt;val1&gt;は&lt;val2&gt;を投げた</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;のHPが&lt;val2&gt;回復した</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;を飲んだ</t>
+  </si>
+  <si>
+    <t>おなかいっぱいになった</t>
+  </si>
+  <si>
+    <t>おなかが回復した</t>
   </si>
   <si>
     <t>ダミー</t>
@@ -1660,7 +1672,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -1668,7 +1680,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -1676,7 +1688,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -1684,7 +1696,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -1692,7 +1704,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -1700,7 +1712,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -1708,7 +1720,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -1716,7 +1728,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -1724,7 +1736,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -1732,7 +1744,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -1740,7 +1752,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -1748,7 +1760,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1756,7 +1768,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1764,7 +1776,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1772,7 +1784,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -1780,7 +1792,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -1788,7 +1800,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -1796,7 +1808,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -1804,7 +1816,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -1812,7 +1824,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -1820,7 +1832,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -1828,7 +1840,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -1836,7 +1848,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -1844,7 +1856,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -1852,7 +1864,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -1860,7 +1872,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -1868,7 +1880,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -1876,7 +1888,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -1884,7 +1896,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -1892,7 +1904,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -1900,7 +1912,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -1908,7 +1920,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -1916,7 +1928,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -1924,7 +1936,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -1932,7 +1944,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -1940,7 +1952,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -1948,7 +1960,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -1956,7 +1968,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -1964,7 +1976,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -1972,7 +1984,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -1980,7 +1992,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -1988,7 +2000,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -1996,7 +2008,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -2004,7 +2016,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2012,7 +2024,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="message" sheetId="1" r:id="rId4"/>
+    <sheet name="hint" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
   <si>
     <t>id</t>
   </si>
@@ -132,6 +133,198 @@
   </si>
   <si>
     <t>上下キー:項目の移動 / Z:選択 / X:キャンセル</t>
+  </si>
+  <si>
+    <t>Xキーを押すとメニューを開くことができます</t>
+  </si>
+  <si>
+    <t>Zキーを押すと目の前の敵を攻撃できます</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ3</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ4</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ5</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ6</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ7</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ8</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ9</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ10</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ11</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ12</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ13</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ14</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ15</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ16</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ17</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ18</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ19</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ20</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ21</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ22</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ23</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ24</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ25</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ26</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ27</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ28</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ29</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ30</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ31</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ32</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ33</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ34</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ35</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ36</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ37</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ38</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ39</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ40</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ41</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ42</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ43</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ44</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ45</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ46</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ47</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ48</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ49</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ50</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ51</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ52</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ53</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ54</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ55</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ56</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ57</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ58</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ59</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ60</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ61</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ62</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ63</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ64</t>
   </si>
 </sst>
 </file>
@@ -222,7 +415,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -236,6 +429,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1495,7 +1691,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.8359" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.875" style="1" customWidth="1"/>
     <col min="3" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2025,6 +2221,559 @@
       </c>
       <c r="B66" t="s" s="4">
         <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="42.25" style="5" customWidth="1"/>
+    <col min="3" max="256" width="12.25" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="14.95" customHeight="1">
+      <c r="A2" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s" s="4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s" s="4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s" s="4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s" s="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s" s="4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s" s="4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s" s="4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s" s="4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s" s="4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s" s="4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s" s="4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1">
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1">
+      <c r="A49" s="3">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1">
+      <c r="A51" s="3">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1">
+      <c r="A53" s="3">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1">
+      <c r="A55" s="3">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" ht="20" customHeight="1">
+      <c r="A56" s="3">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" ht="20" customHeight="1">
+      <c r="A57" s="3">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" ht="20" customHeight="1">
+      <c r="A58" s="3">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" ht="20" customHeight="1">
+      <c r="A59" s="3">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" ht="20" customHeight="1">
+      <c r="A60" s="3">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s" s="4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" ht="20" customHeight="1">
+      <c r="A61" s="3">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" ht="20" customHeight="1">
+      <c r="A62" s="3">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" ht="20" customHeight="1">
+      <c r="A63" s="3">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" ht="20" customHeight="1">
+      <c r="A64" s="3">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s" s="4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" ht="20" customHeight="1">
+      <c r="A65" s="3">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" ht="20" customHeight="1">
+      <c r="A66" s="3">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s" s="4">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
   <si>
     <t>id</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>おなかが回復した</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は&lt;val2&gt;を読んだ</t>
   </si>
   <si>
     <t>ダミー</t>
@@ -1900,7 +1903,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -1908,7 +1911,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -1916,7 +1919,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -1924,7 +1927,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -1932,7 +1935,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -1940,7 +1943,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -1948,7 +1951,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -1956,7 +1959,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1964,7 +1967,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1972,7 +1975,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1980,7 +1983,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -1988,7 +1991,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -1996,7 +1999,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -2004,7 +2007,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -2012,7 +2015,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -2020,7 +2023,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -2028,7 +2031,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -2036,7 +2039,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -2044,7 +2047,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -2052,7 +2055,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -2060,7 +2063,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -2068,7 +2071,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -2076,7 +2079,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -2084,7 +2087,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -2092,7 +2095,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2100,7 +2103,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2108,7 +2111,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2116,7 +2119,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2124,7 +2127,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -2132,7 +2135,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2140,7 +2143,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -2148,7 +2151,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2156,7 +2159,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2164,7 +2167,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2172,7 +2175,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2180,7 +2183,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2188,7 +2191,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2196,7 +2199,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2204,7 +2207,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -2212,7 +2215,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2220,7 +2223,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2269,7 +2272,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2277,7 +2280,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2285,7 +2288,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2293,7 +2296,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2301,7 +2304,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2309,7 +2312,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2317,7 +2320,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2325,7 +2328,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2333,7 +2336,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2341,7 +2344,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2349,7 +2352,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2357,7 +2360,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2365,7 +2368,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2373,7 +2376,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2381,7 +2384,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2389,7 +2392,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2397,7 +2400,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2405,7 +2408,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2413,7 +2416,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2421,7 +2424,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2429,7 +2432,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2437,7 +2440,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2445,7 +2448,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2453,7 +2456,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2461,7 +2464,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2469,7 +2472,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2477,7 +2480,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2485,7 +2488,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2493,7 +2496,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2501,7 +2504,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2509,7 +2512,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2517,7 +2520,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -2525,7 +2528,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -2533,7 +2536,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -2541,7 +2544,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -2549,7 +2552,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -2557,7 +2560,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -2565,7 +2568,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -2573,7 +2576,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -2581,7 +2584,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -2589,7 +2592,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -2597,7 +2600,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -2605,7 +2608,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -2613,7 +2616,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -2621,7 +2624,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -2629,7 +2632,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -2637,7 +2640,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -2645,7 +2648,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2653,7 +2656,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2661,7 +2664,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2669,7 +2672,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2677,7 +2680,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -2685,7 +2688,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2693,7 +2696,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -2701,7 +2704,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2709,7 +2712,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2717,7 +2720,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2725,7 +2728,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2733,7 +2736,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2741,7 +2744,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2749,7 +2752,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2757,7 +2760,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -2765,7 +2768,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2773,7 +2776,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t>id</t>
   </si>
@@ -118,6 +118,15 @@
   </si>
   <si>
     <t>拾う</t>
+  </si>
+  <si>
+    <t>階段がある</t>
+  </si>
+  <si>
+    <t>下りる</t>
+  </si>
+  <si>
+    <t>そのまま</t>
   </si>
   <si>
     <t>足下</t>
@@ -2023,7 +2032,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -2031,7 +2040,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -2039,7 +2048,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -2095,7 +2104,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2103,7 +2112,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2159,7 +2168,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2167,7 +2176,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2175,7 +2184,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2183,7 +2192,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2272,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2280,7 +2289,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2288,7 +2297,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2296,7 +2305,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2304,7 +2313,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2312,7 +2321,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2320,7 +2329,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2328,7 +2337,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2336,7 +2345,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2344,7 +2353,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2352,7 +2361,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2360,7 +2369,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2368,7 +2377,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2376,7 +2385,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2384,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2392,7 +2401,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2400,7 +2409,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2408,7 +2417,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2416,7 +2425,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2424,7 +2433,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2432,7 +2441,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2440,7 +2449,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2448,7 +2457,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2456,7 +2465,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2464,7 +2473,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2472,7 +2481,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2480,7 +2489,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2488,7 +2497,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2496,7 +2505,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2504,7 +2513,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2512,7 +2521,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2520,7 +2529,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -2528,7 +2537,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -2536,7 +2545,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -2544,7 +2553,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -2552,7 +2561,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -2560,7 +2569,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -2568,7 +2577,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -2576,7 +2585,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -2584,7 +2593,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -2592,7 +2601,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -2600,7 +2609,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -2608,7 +2617,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -2616,7 +2625,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -2624,7 +2633,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -2632,7 +2641,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -2640,7 +2649,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -2648,7 +2657,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2656,7 +2665,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2664,7 +2673,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2672,7 +2681,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2680,7 +2689,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -2688,7 +2697,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2696,7 +2705,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -2704,7 +2713,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2712,7 +2721,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2720,7 +2729,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2728,7 +2737,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2736,7 +2745,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2744,7 +2753,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2752,7 +2761,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2760,7 +2769,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -2768,7 +2777,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2776,7 +2785,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>id</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>&lt;val1&gt;は&lt;val2&gt;を読んだ</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;の最大HPが&lt;val2&gt;上昇した</t>
+  </si>
+  <si>
+    <t>最大満腹度が&lt;val1&gt;上昇した</t>
   </si>
   <si>
     <t>ダミー</t>
@@ -1920,7 +1926,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -1928,7 +1934,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -1936,7 +1942,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -1944,7 +1950,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -1952,7 +1958,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -1960,7 +1966,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -1968,7 +1974,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1976,7 +1982,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1984,7 +1990,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1992,7 +1998,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -2000,7 +2006,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -2008,7 +2014,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -2016,7 +2022,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -2024,7 +2030,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -2032,7 +2038,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -2040,7 +2046,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -2048,7 +2054,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -2056,7 +2062,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -2064,7 +2070,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -2072,7 +2078,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -2080,7 +2086,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -2088,7 +2094,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -2096,7 +2102,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -2104,7 +2110,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2112,7 +2118,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2120,7 +2126,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2128,7 +2134,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2136,7 +2142,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -2144,7 +2150,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2152,7 +2158,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -2160,7 +2166,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2168,7 +2174,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2176,7 +2182,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2184,7 +2190,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2192,7 +2198,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2200,7 +2206,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2208,7 +2214,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2216,7 +2222,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -2224,7 +2230,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2232,7 +2238,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2281,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2289,7 +2295,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2297,7 +2303,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2305,7 +2311,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2313,7 +2319,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2321,7 +2327,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2329,7 +2335,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2337,7 +2343,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2345,7 +2351,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2353,7 +2359,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2361,7 +2367,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2369,7 +2375,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2377,7 +2383,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2385,7 +2391,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2393,7 +2399,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2401,7 +2407,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2409,7 +2415,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2417,7 +2423,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2425,7 +2431,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2433,7 +2439,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2441,7 +2447,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2449,7 +2455,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2457,7 +2463,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2465,7 +2471,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2473,7 +2479,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2481,7 +2487,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2489,7 +2495,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2497,7 +2503,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2505,7 +2511,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2513,7 +2519,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2521,7 +2527,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2529,7 +2535,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -2537,7 +2543,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -2545,7 +2551,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -2553,7 +2559,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -2561,7 +2567,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -2569,7 +2575,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -2577,7 +2583,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -2585,7 +2591,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -2593,7 +2599,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -2601,7 +2607,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -2609,7 +2615,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -2617,7 +2623,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -2625,7 +2631,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -2633,7 +2639,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -2641,7 +2647,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -2649,7 +2655,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -2657,7 +2663,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2665,7 +2671,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2673,7 +2679,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2681,7 +2687,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2689,7 +2695,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -2697,7 +2703,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2705,7 +2711,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -2713,7 +2719,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2721,7 +2727,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2729,7 +2735,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2737,7 +2743,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2745,7 +2751,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2753,7 +2759,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2761,7 +2767,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2769,7 +2775,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -2777,7 +2783,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2785,7 +2791,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
   <si>
     <t>id</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>最大満腹度が&lt;val1&gt;上昇した</t>
+  </si>
+  <si>
+    <t>力が&lt;val1&gt;上昇した</t>
   </si>
   <si>
     <t>ダミー</t>
@@ -1942,7 +1945,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -1950,7 +1953,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -1958,7 +1961,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -1966,7 +1969,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -1974,7 +1977,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1982,7 +1985,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1990,7 +1993,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1998,7 +2001,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -2006,7 +2009,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -2014,7 +2017,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -2022,7 +2025,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -2030,7 +2033,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -2038,7 +2041,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -2046,7 +2049,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -2054,7 +2057,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -2062,7 +2065,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -2070,7 +2073,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -2078,7 +2081,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -2086,7 +2089,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -2094,7 +2097,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -2102,7 +2105,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -2110,7 +2113,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2118,7 +2121,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2126,7 +2129,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2134,7 +2137,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2142,7 +2145,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -2150,7 +2153,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2158,7 +2161,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -2166,7 +2169,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2174,7 +2177,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2182,7 +2185,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2190,7 +2193,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2198,7 +2201,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2206,7 +2209,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2214,7 +2217,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2222,7 +2225,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -2230,7 +2233,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2238,7 +2241,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2287,7 +2290,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2295,7 +2298,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2303,7 +2306,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2311,7 +2314,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2319,7 +2322,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2327,7 +2330,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2335,7 +2338,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2343,7 +2346,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2351,7 +2354,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2359,7 +2362,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2367,7 +2370,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2375,7 +2378,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2383,7 +2386,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2391,7 +2394,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2399,7 +2402,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2407,7 +2410,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2415,7 +2418,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2423,7 +2426,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2431,7 +2434,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2439,7 +2442,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2447,7 +2450,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2455,7 +2458,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2463,7 +2466,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2471,7 +2474,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2479,7 +2482,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2487,7 +2490,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2495,7 +2498,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2503,7 +2506,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2511,7 +2514,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2519,7 +2522,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2527,7 +2530,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2535,7 +2538,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -2543,7 +2546,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -2551,7 +2554,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -2559,7 +2562,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -2567,7 +2570,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -2575,7 +2578,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -2583,7 +2586,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -2591,7 +2594,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -2599,7 +2602,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -2607,7 +2610,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -2615,7 +2618,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -2623,7 +2626,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -2631,7 +2634,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -2639,7 +2642,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -2647,7 +2650,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -2655,7 +2658,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -2663,7 +2666,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2671,7 +2674,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2679,7 +2682,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2687,7 +2690,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2695,7 +2698,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -2703,7 +2706,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2711,7 +2714,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -2719,7 +2722,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2727,7 +2730,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2735,7 +2738,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2743,7 +2746,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2751,7 +2754,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2759,7 +2762,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2767,7 +2770,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2775,7 +2778,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -2783,7 +2786,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2791,7 +2794,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
   <si>
     <t>id</t>
   </si>
@@ -103,6 +103,27 @@
   </si>
   <si>
     <t>力が&lt;val1&gt;上昇した</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は混乱した</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は眠った</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は麻痺した</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は病気になった</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は元気いっぱいになった</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は怒り状態になった</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は毒を受けた</t>
   </si>
   <si>
     <t>ダミー</t>
@@ -1705,7 +1726,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1953,7 +1974,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -1961,7 +1982,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -1969,7 +1990,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -1977,7 +1998,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1985,7 +2006,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1993,7 +2014,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -2001,7 +2022,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -2009,7 +2030,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -2017,7 +2038,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -2025,7 +2046,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -2041,7 +2062,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -2049,7 +2070,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -2057,7 +2078,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -2065,7 +2086,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -2073,7 +2094,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -2081,7 +2102,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -2089,7 +2110,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -2097,7 +2118,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -2105,7 +2126,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -2113,7 +2134,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2121,7 +2142,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2129,7 +2150,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2137,7 +2158,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2145,7 +2166,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -2153,7 +2174,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2161,7 +2182,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -2169,7 +2190,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2177,7 +2198,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2185,7 +2206,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2193,7 +2214,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2201,7 +2222,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2209,7 +2230,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2217,7 +2238,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2225,7 +2246,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -2233,7 +2254,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2241,7 +2262,135 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>30</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" ht="20" customHeight="1">
+      <c r="A67" s="3">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" ht="20" customHeight="1">
+      <c r="A68" s="3">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" ht="20" customHeight="1">
+      <c r="A69" s="3">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" ht="20" customHeight="1">
+      <c r="A70" s="3">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" ht="20" customHeight="1">
+      <c r="A71" s="3">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" ht="20" customHeight="1">
+      <c r="A72" s="3">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" ht="20" customHeight="1">
+      <c r="A73" s="3">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" ht="20" customHeight="1">
+      <c r="A74" s="3">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" ht="20" customHeight="1">
+      <c r="A75" s="3">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s" s="4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" ht="20" customHeight="1">
+      <c r="A76" s="3">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" ht="20" customHeight="1">
+      <c r="A77" s="3">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" ht="20" customHeight="1">
+      <c r="A78" s="3">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" ht="20" customHeight="1">
+      <c r="A79" s="3">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" ht="20" customHeight="1">
+      <c r="A80" s="3">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" ht="20" customHeight="1">
+      <c r="A81" s="3">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" ht="20" customHeight="1">
+      <c r="A82" s="3">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s" s="4">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2290,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2298,7 +2447,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2306,7 +2455,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2314,7 +2463,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2322,7 +2471,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2330,7 +2479,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2338,7 +2487,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2346,7 +2495,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2354,7 +2503,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2362,7 +2511,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2370,7 +2519,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2378,7 +2527,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2386,7 +2535,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2394,7 +2543,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2402,7 +2551,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2410,7 +2559,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2418,7 +2567,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2426,7 +2575,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2434,7 +2583,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2442,7 +2591,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2450,7 +2599,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2458,7 +2607,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2466,7 +2615,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2474,7 +2623,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2482,7 +2631,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2490,7 +2639,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2498,7 +2647,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2506,7 +2655,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2514,7 +2663,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2522,7 +2671,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2530,7 +2679,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2538,7 +2687,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -2546,7 +2695,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -2554,7 +2703,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -2562,7 +2711,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -2570,7 +2719,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -2578,7 +2727,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -2586,7 +2735,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -2594,7 +2743,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -2602,7 +2751,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -2610,7 +2759,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -2618,7 +2767,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -2626,7 +2775,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -2634,7 +2783,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -2642,7 +2791,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -2650,7 +2799,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -2658,7 +2807,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -2666,7 +2815,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2674,7 +2823,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2682,7 +2831,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2690,7 +2839,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2698,7 +2847,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -2706,7 +2855,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2714,7 +2863,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -2722,7 +2871,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2730,7 +2879,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2738,7 +2887,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2746,7 +2895,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2754,7 +2903,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2762,7 +2911,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2770,7 +2919,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2778,7 +2927,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -2786,7 +2935,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2794,7 +2943,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
   <si>
     <t>id</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>&lt;val1&gt;は毒を受けた</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は&lt;val2&gt;を振った</t>
   </si>
   <si>
     <t>ダミー</t>
@@ -2030,7 +2033,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -2038,7 +2041,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -2046,7 +2049,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -2054,7 +2057,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -2062,7 +2065,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -2070,7 +2073,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -2078,7 +2081,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -2086,7 +2089,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -2094,7 +2097,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -2102,7 +2105,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -2110,7 +2113,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -2118,7 +2121,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -2126,7 +2129,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -2134,7 +2137,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2142,7 +2145,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2150,7 +2153,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2158,7 +2161,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2166,7 +2169,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -2174,7 +2177,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2182,7 +2185,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -2190,7 +2193,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2198,7 +2201,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2206,7 +2209,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2214,7 +2217,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2222,7 +2225,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2230,7 +2233,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2238,7 +2241,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2246,7 +2249,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -2254,7 +2257,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2262,7 +2265,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" ht="20" customHeight="1">
@@ -2270,7 +2273,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" ht="20" customHeight="1">
@@ -2278,7 +2281,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" ht="20" customHeight="1">
@@ -2286,7 +2289,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" ht="20" customHeight="1">
@@ -2294,7 +2297,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" ht="20" customHeight="1">
@@ -2302,7 +2305,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" ht="20" customHeight="1">
@@ -2310,7 +2313,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" ht="20" customHeight="1">
@@ -2318,7 +2321,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" ht="20" customHeight="1">
@@ -2326,7 +2329,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" ht="20" customHeight="1">
@@ -2334,7 +2337,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" ht="20" customHeight="1">
@@ -2342,7 +2345,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" ht="20" customHeight="1">
@@ -2350,7 +2353,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" ht="20" customHeight="1">
@@ -2358,7 +2361,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" ht="20" customHeight="1">
@@ -2366,7 +2369,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" ht="20" customHeight="1">
@@ -2374,7 +2377,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" ht="20" customHeight="1">
@@ -2382,7 +2385,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" ht="20" customHeight="1">
@@ -2390,7 +2393,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2439,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2447,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2455,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2463,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2471,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2479,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2487,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2495,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2503,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2511,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2519,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2527,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2535,7 +2538,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2543,7 +2546,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2551,7 +2554,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2559,7 +2562,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2567,7 +2570,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2575,7 +2578,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2583,7 +2586,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2591,7 +2594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2599,7 +2602,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2607,7 +2610,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2615,7 +2618,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2623,7 +2626,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2631,7 +2634,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2639,7 +2642,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2647,7 +2650,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2655,7 +2658,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2663,7 +2666,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2671,7 +2674,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2679,7 +2682,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2687,7 +2690,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -2695,7 +2698,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -2703,7 +2706,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -2711,7 +2714,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -2719,7 +2722,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -2727,7 +2730,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -2735,7 +2738,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -2743,7 +2746,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -2751,7 +2754,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -2759,7 +2762,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -2767,7 +2770,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -2775,7 +2778,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -2783,7 +2786,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -2791,7 +2794,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -2799,7 +2802,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -2807,7 +2810,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -2815,7 +2818,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2823,7 +2826,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2831,7 +2834,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2839,7 +2842,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2847,7 +2850,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -2855,7 +2858,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2863,7 +2866,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -2871,7 +2874,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2879,7 +2882,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2887,7 +2890,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2895,7 +2898,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2903,7 +2906,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2911,7 +2914,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2919,7 +2922,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2927,7 +2930,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -2935,7 +2938,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2943,7 +2946,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
   <si>
     <t>id</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>&lt;val1&gt;は&lt;val2&gt;を振った</t>
+  </si>
+  <si>
+    <t>しかし何も起こらなかった</t>
   </si>
   <si>
     <t>ダミー</t>
@@ -2041,7 +2044,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -2049,7 +2052,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -2057,7 +2060,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -2065,7 +2068,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -2073,7 +2076,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -2081,7 +2084,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -2089,7 +2092,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -2097,7 +2100,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -2105,7 +2108,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -2113,7 +2116,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -2121,7 +2124,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -2129,7 +2132,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -2137,7 +2140,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2145,7 +2148,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2153,7 +2156,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2161,7 +2164,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2169,7 +2172,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -2177,7 +2180,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2185,7 +2188,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -2193,7 +2196,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2201,7 +2204,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2209,7 +2212,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2217,7 +2220,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2225,7 +2228,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2233,7 +2236,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2241,7 +2244,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2249,7 +2252,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -2257,7 +2260,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2265,7 +2268,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" ht="20" customHeight="1">
@@ -2273,7 +2276,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" ht="20" customHeight="1">
@@ -2281,7 +2284,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" ht="20" customHeight="1">
@@ -2289,7 +2292,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" ht="20" customHeight="1">
@@ -2297,7 +2300,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" ht="20" customHeight="1">
@@ -2305,7 +2308,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" ht="20" customHeight="1">
@@ -2313,7 +2316,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" ht="20" customHeight="1">
@@ -2321,7 +2324,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" ht="20" customHeight="1">
@@ -2329,7 +2332,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" ht="20" customHeight="1">
@@ -2337,7 +2340,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" ht="20" customHeight="1">
@@ -2345,7 +2348,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" ht="20" customHeight="1">
@@ -2353,7 +2356,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" ht="20" customHeight="1">
@@ -2361,7 +2364,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" ht="20" customHeight="1">
@@ -2369,7 +2372,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" ht="20" customHeight="1">
@@ -2377,7 +2380,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" ht="20" customHeight="1">
@@ -2385,7 +2388,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" ht="20" customHeight="1">
@@ -2393,7 +2396,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2442,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2450,7 +2453,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2458,7 +2461,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2466,7 +2469,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2474,7 +2477,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2482,7 +2485,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2490,7 +2493,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2498,7 +2501,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2506,7 +2509,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2514,7 +2517,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2522,7 +2525,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2530,7 +2533,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2538,7 +2541,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2546,7 +2549,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2554,7 +2557,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2562,7 +2565,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2570,7 +2573,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2578,7 +2581,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2586,7 +2589,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2594,7 +2597,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2602,7 +2605,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2610,7 +2613,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2618,7 +2621,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2626,7 +2629,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2634,7 +2637,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2642,7 +2645,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2650,7 +2653,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2658,7 +2661,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2666,7 +2669,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2674,7 +2677,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2682,7 +2685,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2690,7 +2693,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -2698,7 +2701,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -2706,7 +2709,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -2714,7 +2717,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -2722,7 +2725,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -2730,7 +2733,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -2738,7 +2741,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -2746,7 +2749,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -2754,7 +2757,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -2762,7 +2765,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -2770,7 +2773,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -2778,7 +2781,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -2786,7 +2789,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -2794,7 +2797,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -2802,7 +2805,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -2810,7 +2813,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -2818,7 +2821,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2826,7 +2829,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2834,7 +2837,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2842,7 +2845,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2850,7 +2853,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -2858,7 +2861,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2866,7 +2869,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -2874,7 +2877,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2882,7 +2885,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2890,7 +2893,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2898,7 +2901,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2906,7 +2909,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2914,7 +2917,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2922,7 +2925,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2930,7 +2933,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -2938,7 +2941,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2946,7 +2949,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
   <si>
     <t>id</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>しかし何も起こらなかった</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は正常に戻った</t>
   </si>
   <si>
     <t>ダミー</t>
@@ -2052,7 +2055,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -2060,7 +2063,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -2068,7 +2071,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -2076,7 +2079,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -2084,7 +2087,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -2092,7 +2095,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -2100,7 +2103,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -2108,7 +2111,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -2116,7 +2119,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -2124,7 +2127,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -2132,7 +2135,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -2140,7 +2143,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2148,7 +2151,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2156,7 +2159,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2164,7 +2167,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2172,7 +2175,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -2180,7 +2183,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2188,7 +2191,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -2196,7 +2199,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2204,7 +2207,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2212,7 +2215,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2220,7 +2223,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2228,7 +2231,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2236,7 +2239,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2244,7 +2247,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2252,7 +2255,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -2260,7 +2263,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2268,7 +2271,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" ht="20" customHeight="1">
@@ -2276,7 +2279,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" ht="20" customHeight="1">
@@ -2284,7 +2287,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" ht="20" customHeight="1">
@@ -2292,7 +2295,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" ht="20" customHeight="1">
@@ -2300,7 +2303,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" ht="20" customHeight="1">
@@ -2308,7 +2311,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" ht="20" customHeight="1">
@@ -2316,7 +2319,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" ht="20" customHeight="1">
@@ -2324,7 +2327,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" ht="20" customHeight="1">
@@ -2332,7 +2335,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" ht="20" customHeight="1">
@@ -2340,7 +2343,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" ht="20" customHeight="1">
@@ -2348,7 +2351,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" ht="20" customHeight="1">
@@ -2356,7 +2359,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" ht="20" customHeight="1">
@@ -2364,7 +2367,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" ht="20" customHeight="1">
@@ -2372,7 +2375,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" ht="20" customHeight="1">
@@ -2380,7 +2383,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" ht="20" customHeight="1">
@@ -2388,7 +2391,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" ht="20" customHeight="1">
@@ -2396,7 +2399,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2445,7 +2448,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2453,7 +2456,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2461,7 +2464,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2469,7 +2472,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2477,7 +2480,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2485,7 +2488,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2493,7 +2496,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2501,7 +2504,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2509,7 +2512,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2517,7 +2520,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2525,7 +2528,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2533,7 +2536,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2541,7 +2544,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2549,7 +2552,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2557,7 +2560,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2565,7 +2568,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2573,7 +2576,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2581,7 +2584,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2589,7 +2592,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2597,7 +2600,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2605,7 +2608,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2613,7 +2616,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2621,7 +2624,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2629,7 +2632,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2637,7 +2640,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2645,7 +2648,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2653,7 +2656,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2661,7 +2664,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2669,7 +2672,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2677,7 +2680,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2685,7 +2688,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2693,7 +2696,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -2701,7 +2704,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -2709,7 +2712,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -2717,7 +2720,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -2725,7 +2728,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -2733,7 +2736,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -2741,7 +2744,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -2749,7 +2752,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -2757,7 +2760,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -2765,7 +2768,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -2773,7 +2776,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -2781,7 +2784,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -2789,7 +2792,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -2797,7 +2800,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -2805,7 +2808,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -2813,7 +2816,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -2821,7 +2824,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2829,7 +2832,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2837,7 +2840,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2845,7 +2848,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2853,7 +2856,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -2861,7 +2864,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2869,7 +2872,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -2877,7 +2880,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2885,7 +2888,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2893,7 +2896,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2901,7 +2904,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2909,7 +2912,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2917,7 +2920,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2925,7 +2928,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2933,7 +2936,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -2941,7 +2944,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2949,7 +2952,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
   <si>
     <t>id</t>
   </si>
@@ -166,6 +166,18 @@
   </si>
   <si>
     <t>そのまま</t>
+  </si>
+  <si>
+    <t>お店がある</t>
+  </si>
+  <si>
+    <t>買う</t>
+  </si>
+  <si>
+    <t>売る</t>
+  </si>
+  <si>
+    <t>何もしない</t>
   </si>
   <si>
     <t>足下</t>
@@ -2223,7 +2235,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2231,7 +2243,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2239,7 +2251,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2247,7 +2259,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2271,7 +2283,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" ht="20" customHeight="1">
@@ -2279,7 +2291,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s" s="4">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" ht="20" customHeight="1">
@@ -2335,7 +2347,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s" s="4">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" ht="20" customHeight="1">
@@ -2343,7 +2355,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s" s="4">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" ht="20" customHeight="1">
@@ -2351,7 +2363,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s" s="4">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" ht="20" customHeight="1">
@@ -2359,7 +2371,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s" s="4">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" ht="20" customHeight="1">
@@ -2448,7 +2460,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2456,7 +2468,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2464,7 +2476,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2472,7 +2484,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2480,7 +2492,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2488,7 +2500,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2496,7 +2508,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2504,7 +2516,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2512,7 +2524,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2520,7 +2532,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2528,7 +2540,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2536,7 +2548,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2544,7 +2556,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2552,7 +2564,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2560,7 +2572,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2568,7 +2580,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2576,7 +2588,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2584,7 +2596,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2592,7 +2604,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2600,7 +2612,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2608,7 +2620,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2616,7 +2628,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2624,7 +2636,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2632,7 +2644,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2640,7 +2652,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2648,7 +2660,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2656,7 +2668,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2664,7 +2676,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2672,7 +2684,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2680,7 +2692,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2688,7 +2700,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2696,7 +2708,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -2704,7 +2716,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -2712,7 +2724,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -2720,7 +2732,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -2728,7 +2740,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -2736,7 +2748,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -2744,7 +2756,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -2752,7 +2764,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -2760,7 +2772,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -2768,7 +2780,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -2776,7 +2788,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -2784,7 +2796,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -2792,7 +2804,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -2800,7 +2812,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -2808,7 +2820,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -2816,7 +2828,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -2824,7 +2836,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2832,7 +2844,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2840,7 +2852,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2848,7 +2860,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2856,7 +2868,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -2864,7 +2876,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2872,7 +2884,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -2880,7 +2892,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2888,7 +2900,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2896,7 +2908,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2904,7 +2916,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2912,7 +2924,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2920,7 +2932,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2928,7 +2940,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2936,7 +2948,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -2944,7 +2956,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2952,7 +2964,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
   <si>
     <t>id</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>&lt;val1&gt;は正常に戻った</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;を&lt;val2&gt;円で売った</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;を&lt;val2&gt;円で買った</t>
   </si>
   <si>
     <t>ダミー</t>
@@ -2075,7 +2081,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -2083,7 +2089,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -2091,7 +2097,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -2099,7 +2105,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -2107,7 +2113,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -2115,7 +2121,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -2123,7 +2129,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -2131,7 +2137,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -2139,7 +2145,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -2147,7 +2153,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -2155,7 +2161,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2163,7 +2169,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2171,7 +2177,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2179,7 +2185,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2187,7 +2193,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -2195,7 +2201,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2203,7 +2209,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -2211,7 +2217,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2219,7 +2225,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2227,7 +2233,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2235,7 +2241,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2243,7 +2249,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2251,7 +2257,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2259,7 +2265,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2267,7 +2273,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -2275,7 +2281,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2283,7 +2289,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" ht="20" customHeight="1">
@@ -2291,7 +2297,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s" s="4">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" ht="20" customHeight="1">
@@ -2299,7 +2305,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" ht="20" customHeight="1">
@@ -2307,7 +2313,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" ht="20" customHeight="1">
@@ -2315,7 +2321,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" ht="20" customHeight="1">
@@ -2323,7 +2329,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" ht="20" customHeight="1">
@@ -2331,7 +2337,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" ht="20" customHeight="1">
@@ -2339,7 +2345,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" ht="20" customHeight="1">
@@ -2347,7 +2353,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s" s="4">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" ht="20" customHeight="1">
@@ -2355,7 +2361,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s" s="4">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" ht="20" customHeight="1">
@@ -2363,7 +2369,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s" s="4">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" ht="20" customHeight="1">
@@ -2371,7 +2377,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" ht="20" customHeight="1">
@@ -2379,7 +2385,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" ht="20" customHeight="1">
@@ -2387,7 +2393,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" ht="20" customHeight="1">
@@ -2395,7 +2401,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" ht="20" customHeight="1">
@@ -2403,7 +2409,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" ht="20" customHeight="1">
@@ -2411,7 +2417,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2460,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2468,7 +2474,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2476,7 +2482,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2484,7 +2490,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2492,7 +2498,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2500,7 +2506,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2508,7 +2514,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2516,7 +2522,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2524,7 +2530,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2532,7 +2538,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2540,7 +2546,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2548,7 +2554,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2556,7 +2562,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2564,7 +2570,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2572,7 +2578,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2580,7 +2586,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2588,7 +2594,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2596,7 +2602,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2604,7 +2610,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2612,7 +2618,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2620,7 +2626,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2628,7 +2634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2636,7 +2642,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2644,7 +2650,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2652,7 +2658,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2660,7 +2666,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2668,7 +2674,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2676,7 +2682,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2684,7 +2690,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2692,7 +2698,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2700,7 +2706,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2708,7 +2714,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -2716,7 +2722,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -2724,7 +2730,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -2732,7 +2738,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -2740,7 +2746,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -2748,7 +2754,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -2756,7 +2762,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -2764,7 +2770,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -2772,7 +2778,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -2780,7 +2786,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -2788,7 +2794,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -2796,7 +2802,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -2804,7 +2810,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -2812,7 +2818,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -2820,7 +2826,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -2828,7 +2834,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -2836,7 +2842,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2844,7 +2850,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2852,7 +2858,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2860,7 +2866,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2868,7 +2874,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -2876,7 +2882,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2884,7 +2890,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -2892,7 +2898,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2900,7 +2906,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2908,7 +2914,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2916,7 +2922,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2924,7 +2930,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2932,7 +2938,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2940,7 +2946,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2948,7 +2954,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -2956,7 +2962,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2964,7 +2970,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
   <si>
     <t>id</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>&lt;val1&gt;を&lt;val2&gt;円で買った</t>
+  </si>
+  <si>
+    <t>お金が足りない</t>
+  </si>
+  <si>
+    <t>アイテムがいっぱいなので買えない</t>
   </si>
   <si>
     <t>ダミー</t>
@@ -2097,7 +2103,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -2105,7 +2111,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -2113,7 +2119,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -2121,7 +2127,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -2129,7 +2135,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -2137,7 +2143,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -2145,7 +2151,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -2153,7 +2159,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -2161,7 +2167,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2169,7 +2175,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2177,7 +2183,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2185,7 +2191,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2193,7 +2199,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -2201,7 +2207,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2209,7 +2215,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -2217,7 +2223,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2225,7 +2231,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2233,7 +2239,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2241,7 +2247,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2249,7 +2255,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2257,7 +2263,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2265,7 +2271,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2273,7 +2279,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -2281,7 +2287,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2289,7 +2295,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" ht="20" customHeight="1">
@@ -2297,7 +2303,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s" s="4">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" ht="20" customHeight="1">
@@ -2305,7 +2311,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" ht="20" customHeight="1">
@@ -2313,7 +2319,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" ht="20" customHeight="1">
@@ -2321,7 +2327,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" ht="20" customHeight="1">
@@ -2329,7 +2335,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" ht="20" customHeight="1">
@@ -2337,7 +2343,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" ht="20" customHeight="1">
@@ -2345,7 +2351,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" ht="20" customHeight="1">
@@ -2353,7 +2359,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s" s="4">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" ht="20" customHeight="1">
@@ -2361,7 +2367,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" ht="20" customHeight="1">
@@ -2369,7 +2375,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s" s="4">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" ht="20" customHeight="1">
@@ -2377,7 +2383,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s" s="4">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" ht="20" customHeight="1">
@@ -2385,7 +2391,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" ht="20" customHeight="1">
@@ -2393,7 +2399,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" ht="20" customHeight="1">
@@ -2401,7 +2407,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" ht="20" customHeight="1">
@@ -2409,7 +2415,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" ht="20" customHeight="1">
@@ -2417,7 +2423,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2466,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2474,7 +2480,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2482,7 +2488,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2490,7 +2496,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2498,7 +2504,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2506,7 +2512,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2514,7 +2520,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2522,7 +2528,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2530,7 +2536,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2538,7 +2544,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2546,7 +2552,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2554,7 +2560,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2562,7 +2568,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2570,7 +2576,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2578,7 +2584,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2586,7 +2592,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2594,7 +2600,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2602,7 +2608,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2610,7 +2616,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2618,7 +2624,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2626,7 +2632,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2634,7 +2640,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2642,7 +2648,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2650,7 +2656,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2658,7 +2664,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2666,7 +2672,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2674,7 +2680,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2682,7 +2688,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2690,7 +2696,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2698,7 +2704,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2706,7 +2712,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2714,7 +2720,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -2722,7 +2728,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -2730,7 +2736,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -2738,7 +2744,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -2746,7 +2752,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -2754,7 +2760,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -2762,7 +2768,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -2770,7 +2776,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -2778,7 +2784,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -2786,7 +2792,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -2794,7 +2800,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -2802,7 +2808,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -2810,7 +2816,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -2818,7 +2824,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -2826,7 +2832,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -2834,7 +2840,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -2842,7 +2848,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2850,7 +2856,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2858,7 +2864,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2866,7 +2872,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2874,7 +2880,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -2882,7 +2888,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2890,7 +2896,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -2898,7 +2904,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2906,7 +2912,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2914,7 +2920,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2922,7 +2928,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2930,7 +2936,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2938,7 +2944,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2946,7 +2952,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2954,7 +2960,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -2962,7 +2968,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2970,7 +2976,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
   <si>
     <t>id</t>
   </si>
@@ -204,10 +204,16 @@
     <t>上下キー:項目の移動 / 左右キー:ページ移動 / Z:選択 / X:キャンセル</t>
   </si>
   <si>
-    <t>カーソルキー:項目の移動 / Z:決定</t>
+    <t>カーソルキー:項目の移動 / Z:決定 / X:キャンセル</t>
   </si>
   <si>
     <t>上下キー:項目の移動 / Z:選択 / X:キャンセル</t>
+  </si>
+  <si>
+    <t>上下キー:項目の移動 / Z:売却 / X:キャンセル</t>
+  </si>
+  <si>
+    <t>上下キー:項目の移動 / Z:購入 / X:キャンセル</t>
   </si>
   <si>
     <t>Xキーを押すとメニューを開くことができます</t>
@@ -2391,7 +2397,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s" s="4">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" ht="20" customHeight="1">
@@ -2399,7 +2405,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s" s="4">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" ht="20" customHeight="1">
@@ -2472,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2480,7 +2486,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2488,7 +2494,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2496,7 +2502,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2504,7 +2510,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2512,7 +2518,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2520,7 +2526,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2528,7 +2534,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2536,7 +2542,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2544,7 +2550,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2552,7 +2558,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2560,7 +2566,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2568,7 +2574,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2576,7 +2582,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2584,7 +2590,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2592,7 +2598,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2600,7 +2606,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2608,7 +2614,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2616,7 +2622,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2624,7 +2630,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2632,7 +2638,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2640,7 +2646,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2648,7 +2654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2656,7 +2662,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2664,7 +2670,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2672,7 +2678,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2680,7 +2686,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2688,7 +2694,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2696,7 +2702,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2704,7 +2710,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2712,7 +2718,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2720,7 +2726,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -2728,7 +2734,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -2736,7 +2742,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -2744,7 +2750,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -2752,7 +2758,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -2760,7 +2766,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -2768,7 +2774,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -2776,7 +2782,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -2784,7 +2790,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -2792,7 +2798,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -2800,7 +2806,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -2808,7 +2814,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -2816,7 +2822,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -2824,7 +2830,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -2832,7 +2838,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -2840,7 +2846,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -2848,7 +2854,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2856,7 +2862,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2864,7 +2870,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2872,7 +2878,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2880,7 +2886,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -2888,7 +2894,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2896,7 +2902,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -2904,7 +2910,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2912,7 +2918,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2920,7 +2926,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2928,7 +2934,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2936,7 +2942,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2944,7 +2950,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2952,7 +2958,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2960,7 +2966,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -2968,7 +2974,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2976,7 +2982,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -201,7 +201,7 @@
     <t>カーソルキー:移動 / Z:攻撃 / X:メニュー / C+カーソルキー:振り向く</t>
   </si>
   <si>
-    <t>上下キー:項目の移動 / 左右キー:ページ移動 / Z:選択 / X:キャンセル</t>
+    <t>上下キー:項目の移動 / 左右キー:ページ移動 / Z:選択 / X:キャンセル / C:ソート</t>
   </si>
   <si>
     <t>カーソルキー:項目の移動 / Z:決定 / X:キャンセル</t>
@@ -1772,7 +1772,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.2031" style="1" customWidth="1"/>
     <col min="3" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
   <si>
     <t>id</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>アイテムがいっぱいなので買えない</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;を使った</t>
   </si>
   <si>
     <t>ダミー</t>
@@ -2125,7 +2128,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -2133,7 +2136,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -2141,7 +2144,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -2149,7 +2152,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -2157,7 +2160,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -2165,7 +2168,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -2173,7 +2176,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2181,7 +2184,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2189,7 +2192,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2197,7 +2200,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2205,7 +2208,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -2213,7 +2216,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2221,7 +2224,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -2229,7 +2232,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2237,7 +2240,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2245,7 +2248,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2253,7 +2256,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2261,7 +2264,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2269,7 +2272,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2277,7 +2280,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2285,7 +2288,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -2293,7 +2296,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2301,7 +2304,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" ht="20" customHeight="1">
@@ -2309,7 +2312,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" ht="20" customHeight="1">
@@ -2317,7 +2320,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" ht="20" customHeight="1">
@@ -2325,7 +2328,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" ht="20" customHeight="1">
@@ -2333,7 +2336,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" ht="20" customHeight="1">
@@ -2341,7 +2344,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" ht="20" customHeight="1">
@@ -2349,7 +2352,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" ht="20" customHeight="1">
@@ -2357,7 +2360,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" ht="20" customHeight="1">
@@ -2365,7 +2368,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" ht="20" customHeight="1">
@@ -2373,7 +2376,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" ht="20" customHeight="1">
@@ -2381,7 +2384,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" ht="20" customHeight="1">
@@ -2389,7 +2392,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" ht="20" customHeight="1">
@@ -2397,7 +2400,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" ht="20" customHeight="1">
@@ -2405,7 +2408,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" ht="20" customHeight="1">
@@ -2413,7 +2416,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" ht="20" customHeight="1">
@@ -2421,7 +2424,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" ht="20" customHeight="1">
@@ -2429,7 +2432,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2478,7 +2481,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2486,7 +2489,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2494,7 +2497,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2502,7 +2505,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2510,7 +2513,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2518,7 +2521,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2526,7 +2529,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2534,7 +2537,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2542,7 +2545,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2550,7 +2553,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2558,7 +2561,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2566,7 +2569,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2574,7 +2577,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2582,7 +2585,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2590,7 +2593,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2598,7 +2601,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2606,7 +2609,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2614,7 +2617,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2622,7 +2625,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2630,7 +2633,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2638,7 +2641,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2646,7 +2649,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2654,7 +2657,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2662,7 +2665,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2670,7 +2673,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2678,7 +2681,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2686,7 +2689,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2694,7 +2697,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2702,7 +2705,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2710,7 +2713,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2718,7 +2721,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2726,7 +2729,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -2734,7 +2737,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -2742,7 +2745,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -2750,7 +2753,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -2758,7 +2761,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -2766,7 +2769,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -2774,7 +2777,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -2782,7 +2785,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -2790,7 +2793,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -2798,7 +2801,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -2806,7 +2809,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -2814,7 +2817,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -2822,7 +2825,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -2830,7 +2833,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -2838,7 +2841,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -2846,7 +2849,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -2854,7 +2857,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2862,7 +2865,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2870,7 +2873,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2878,7 +2881,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2886,7 +2889,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -2894,7 +2897,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2902,7 +2905,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -2910,7 +2913,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2918,7 +2921,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2926,7 +2929,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2934,7 +2937,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2942,7 +2945,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2950,7 +2953,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2958,7 +2961,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2966,7 +2969,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -2974,7 +2977,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2982,7 +2985,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
   <si>
     <t>id</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>&lt;val1&gt;を使った</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;の力で復活した</t>
   </si>
   <si>
     <t>ダミー</t>
@@ -2136,7 +2139,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -2144,7 +2147,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -2152,7 +2155,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -2160,7 +2163,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -2168,7 +2171,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -2176,7 +2179,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2184,7 +2187,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2192,7 +2195,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2200,7 +2203,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2208,7 +2211,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -2216,7 +2219,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2224,7 +2227,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -2232,7 +2235,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2240,7 +2243,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2248,7 +2251,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2256,7 +2259,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2264,7 +2267,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2272,7 +2275,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2280,7 +2283,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2288,7 +2291,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -2296,7 +2299,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2304,7 +2307,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" ht="20" customHeight="1">
@@ -2312,7 +2315,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" ht="20" customHeight="1">
@@ -2320,7 +2323,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" ht="20" customHeight="1">
@@ -2328,7 +2331,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" ht="20" customHeight="1">
@@ -2336,7 +2339,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" ht="20" customHeight="1">
@@ -2344,7 +2347,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" ht="20" customHeight="1">
@@ -2352,7 +2355,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" ht="20" customHeight="1">
@@ -2360,7 +2363,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" ht="20" customHeight="1">
@@ -2368,7 +2371,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" ht="20" customHeight="1">
@@ -2376,7 +2379,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" ht="20" customHeight="1">
@@ -2384,7 +2387,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" ht="20" customHeight="1">
@@ -2392,7 +2395,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" ht="20" customHeight="1">
@@ -2400,7 +2403,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" ht="20" customHeight="1">
@@ -2408,7 +2411,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" ht="20" customHeight="1">
@@ -2416,7 +2419,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81" ht="20" customHeight="1">
@@ -2424,7 +2427,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82" ht="20" customHeight="1">
@@ -2432,7 +2435,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2481,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2489,7 +2492,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2497,7 +2500,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2505,7 +2508,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2513,7 +2516,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2521,7 +2524,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2529,7 +2532,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2537,7 +2540,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2545,7 +2548,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2553,7 +2556,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2561,7 +2564,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2569,7 +2572,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2577,7 +2580,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2585,7 +2588,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2593,7 +2596,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2601,7 +2604,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2609,7 +2612,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2617,7 +2620,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2625,7 +2628,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2633,7 +2636,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2641,7 +2644,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2649,7 +2652,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2657,7 +2660,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2665,7 +2668,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2673,7 +2676,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2681,7 +2684,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2689,7 +2692,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2697,7 +2700,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2705,7 +2708,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2713,7 +2716,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2721,7 +2724,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2729,7 +2732,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -2737,7 +2740,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -2745,7 +2748,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -2753,7 +2756,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -2761,7 +2764,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -2769,7 +2772,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -2777,7 +2780,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -2785,7 +2788,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -2793,7 +2796,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -2801,7 +2804,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -2809,7 +2812,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -2817,7 +2820,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -2825,7 +2828,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -2833,7 +2836,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -2841,7 +2844,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -2849,7 +2852,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -2857,7 +2860,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2865,7 +2868,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2873,7 +2876,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2881,7 +2884,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2889,7 +2892,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -2897,7 +2900,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2905,7 +2908,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -2913,7 +2916,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2921,7 +2924,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2929,7 +2932,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2937,7 +2940,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2945,7 +2948,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2953,7 +2956,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2961,7 +2964,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2969,7 +2972,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -2977,7 +2980,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2985,7 +2988,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
   <si>
     <t>id</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>&lt;val1&gt;の力で復活した</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は無敵になった</t>
   </si>
   <si>
     <t>ダミー</t>
@@ -2147,7 +2150,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -2155,7 +2158,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -2163,7 +2166,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -2171,7 +2174,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -2179,7 +2182,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2187,7 +2190,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2195,7 +2198,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2203,7 +2206,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2211,7 +2214,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -2219,7 +2222,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2227,7 +2230,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -2235,7 +2238,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2243,7 +2246,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2251,7 +2254,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2259,7 +2262,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2267,7 +2270,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2275,7 +2278,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2283,7 +2286,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2291,7 +2294,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -2299,7 +2302,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2307,7 +2310,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" ht="20" customHeight="1">
@@ -2315,7 +2318,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" ht="20" customHeight="1">
@@ -2323,7 +2326,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" ht="20" customHeight="1">
@@ -2331,7 +2334,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" ht="20" customHeight="1">
@@ -2339,7 +2342,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" ht="20" customHeight="1">
@@ -2347,7 +2350,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" ht="20" customHeight="1">
@@ -2355,7 +2358,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" ht="20" customHeight="1">
@@ -2363,7 +2366,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" ht="20" customHeight="1">
@@ -2371,7 +2374,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" ht="20" customHeight="1">
@@ -2379,7 +2382,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" ht="20" customHeight="1">
@@ -2387,7 +2390,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" ht="20" customHeight="1">
@@ -2395,7 +2398,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" ht="20" customHeight="1">
@@ -2403,7 +2406,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" ht="20" customHeight="1">
@@ -2411,7 +2414,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" ht="20" customHeight="1">
@@ -2419,7 +2422,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" ht="20" customHeight="1">
@@ -2427,7 +2430,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" ht="20" customHeight="1">
@@ -2435,7 +2438,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2484,7 +2487,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2492,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2500,7 +2503,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2508,7 +2511,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2516,7 +2519,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2524,7 +2527,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2532,7 +2535,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2540,7 +2543,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2548,7 +2551,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2556,7 +2559,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2564,7 +2567,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2572,7 +2575,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2580,7 +2583,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2588,7 +2591,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2596,7 +2599,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2604,7 +2607,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2612,7 +2615,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2620,7 +2623,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2628,7 +2631,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2636,7 +2639,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2644,7 +2647,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2652,7 +2655,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2660,7 +2663,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2668,7 +2671,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2676,7 +2679,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2684,7 +2687,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2692,7 +2695,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2700,7 +2703,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2708,7 +2711,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2716,7 +2719,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2724,7 +2727,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2732,7 +2735,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -2740,7 +2743,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -2748,7 +2751,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -2756,7 +2759,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -2764,7 +2767,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -2772,7 +2775,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -2780,7 +2783,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -2788,7 +2791,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -2796,7 +2799,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -2804,7 +2807,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -2812,7 +2815,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -2820,7 +2823,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -2828,7 +2831,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -2836,7 +2839,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -2844,7 +2847,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -2852,7 +2855,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -2860,7 +2863,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2868,7 +2871,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2876,7 +2879,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2884,7 +2887,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2892,7 +2895,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -2900,7 +2903,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2908,7 +2911,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -2916,7 +2919,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2924,7 +2927,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2932,7 +2935,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2940,7 +2943,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2948,7 +2951,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2956,7 +2959,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2964,7 +2967,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2972,7 +2975,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -2980,7 +2983,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2988,7 +2991,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
   <si>
     <t>id</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>&lt;val1&gt;は無敵になった</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は巻物と杖が使えなくなった</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は特殊攻撃が使えなくなった</t>
   </si>
   <si>
     <t>ダミー</t>
@@ -2158,7 +2164,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -2166,7 +2172,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -2174,7 +2180,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -2182,7 +2188,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2190,7 +2196,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2198,7 +2204,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2206,7 +2212,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2214,7 +2220,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -2222,7 +2228,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2230,7 +2236,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -2238,7 +2244,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2246,7 +2252,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2254,7 +2260,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2262,7 +2268,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2270,7 +2276,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2278,7 +2284,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2286,7 +2292,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2294,7 +2300,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -2302,7 +2308,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2310,7 +2316,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" ht="20" customHeight="1">
@@ -2318,7 +2324,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s" s="4">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" ht="20" customHeight="1">
@@ -2326,7 +2332,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" ht="20" customHeight="1">
@@ -2334,7 +2340,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" ht="20" customHeight="1">
@@ -2342,7 +2348,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" ht="20" customHeight="1">
@@ -2350,7 +2356,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" ht="20" customHeight="1">
@@ -2358,7 +2364,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" ht="20" customHeight="1">
@@ -2366,7 +2372,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" ht="20" customHeight="1">
@@ -2374,7 +2380,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s" s="4">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" ht="20" customHeight="1">
@@ -2382,7 +2388,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s" s="4">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" ht="20" customHeight="1">
@@ -2390,7 +2396,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s" s="4">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" ht="20" customHeight="1">
@@ -2398,7 +2404,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s" s="4">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" ht="20" customHeight="1">
@@ -2406,7 +2412,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s" s="4">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" ht="20" customHeight="1">
@@ -2414,7 +2420,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s" s="4">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" ht="20" customHeight="1">
@@ -2422,7 +2428,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" ht="20" customHeight="1">
@@ -2430,7 +2436,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" ht="20" customHeight="1">
@@ -2438,7 +2444,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2487,7 +2493,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2495,7 +2501,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2503,7 +2509,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2511,7 +2517,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2519,7 +2525,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2527,7 +2533,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2535,7 +2541,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2543,7 +2549,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2551,7 +2557,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2559,7 +2565,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2567,7 +2573,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2575,7 +2581,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2583,7 +2589,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2591,7 +2597,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2599,7 +2605,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2607,7 +2613,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2615,7 +2621,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2623,7 +2629,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2631,7 +2637,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2639,7 +2645,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2647,7 +2653,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2655,7 +2661,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2663,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2671,7 +2677,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2679,7 +2685,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2687,7 +2693,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2695,7 +2701,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2703,7 +2709,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2711,7 +2717,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2719,7 +2725,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2727,7 +2733,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2735,7 +2741,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -2743,7 +2749,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -2751,7 +2757,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -2759,7 +2765,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -2767,7 +2773,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -2775,7 +2781,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -2783,7 +2789,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -2791,7 +2797,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -2799,7 +2805,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -2807,7 +2813,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -2815,7 +2821,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -2823,7 +2829,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -2831,7 +2837,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -2839,7 +2845,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -2847,7 +2853,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -2855,7 +2861,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -2863,7 +2869,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2871,7 +2877,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2879,7 +2885,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2887,7 +2893,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2895,7 +2901,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -2903,7 +2909,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2911,7 +2917,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -2919,7 +2925,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2927,7 +2933,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2935,7 +2941,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2943,7 +2949,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2951,7 +2957,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2959,7 +2965,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2967,7 +2973,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2975,7 +2981,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -2983,7 +2989,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2991,7 +2997,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
   <si>
     <t>id</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>&lt;val1&gt;は特殊攻撃が使えなくなった</t>
+  </si>
+  <si>
+    <t>アイテム所持上限が&lt;val1&gt;増えた（最大&lt;val2&gt;）</t>
   </si>
   <si>
     <t>ダミー</t>
@@ -2180,7 +2183,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -2188,7 +2191,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2196,7 +2199,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2204,7 +2207,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2212,7 +2215,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2220,7 +2223,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -2228,7 +2231,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2236,7 +2239,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -2244,7 +2247,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2252,7 +2255,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2260,7 +2263,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2268,7 +2271,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2276,7 +2279,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2284,7 +2287,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2292,7 +2295,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2300,7 +2303,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -2308,7 +2311,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2316,7 +2319,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" ht="20" customHeight="1">
@@ -2324,7 +2327,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" ht="20" customHeight="1">
@@ -2332,7 +2335,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" ht="20" customHeight="1">
@@ -2340,7 +2343,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" ht="20" customHeight="1">
@@ -2348,7 +2351,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" ht="20" customHeight="1">
@@ -2356,7 +2359,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="20" customHeight="1">
@@ -2364,7 +2367,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" ht="20" customHeight="1">
@@ -2372,7 +2375,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" ht="20" customHeight="1">
@@ -2380,7 +2383,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" ht="20" customHeight="1">
@@ -2388,7 +2391,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" ht="20" customHeight="1">
@@ -2396,7 +2399,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77" ht="20" customHeight="1">
@@ -2404,7 +2407,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" ht="20" customHeight="1">
@@ -2412,7 +2415,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" ht="20" customHeight="1">
@@ -2420,7 +2423,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" ht="20" customHeight="1">
@@ -2428,7 +2431,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" ht="20" customHeight="1">
@@ -2436,7 +2439,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" ht="20" customHeight="1">
@@ -2444,7 +2447,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2493,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2501,7 +2504,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2509,7 +2512,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2517,7 +2520,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2525,7 +2528,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2533,7 +2536,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2541,7 +2544,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2549,7 +2552,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2557,7 +2560,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2565,7 +2568,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2573,7 +2576,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2581,7 +2584,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2589,7 +2592,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2597,7 +2600,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2605,7 +2608,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2613,7 +2616,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2621,7 +2624,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2629,7 +2632,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2637,7 +2640,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2645,7 +2648,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2653,7 +2656,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2661,7 +2664,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2669,7 +2672,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2677,7 +2680,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2685,7 +2688,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2693,7 +2696,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2701,7 +2704,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2709,7 +2712,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2717,7 +2720,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2725,7 +2728,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2733,7 +2736,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2741,7 +2744,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -2749,7 +2752,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -2757,7 +2760,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -2765,7 +2768,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -2773,7 +2776,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -2781,7 +2784,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -2789,7 +2792,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -2797,7 +2800,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -2805,7 +2808,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -2813,7 +2816,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -2821,7 +2824,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -2829,7 +2832,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -2837,7 +2840,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -2845,7 +2848,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -2853,7 +2856,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -2861,7 +2864,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -2869,7 +2872,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2877,7 +2880,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2885,7 +2888,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2893,7 +2896,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2901,7 +2904,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -2909,7 +2912,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2917,7 +2920,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -2925,7 +2928,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2933,7 +2936,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2941,7 +2944,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2949,7 +2952,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2957,7 +2960,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2965,7 +2968,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2973,7 +2976,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2981,7 +2984,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -2989,7 +2992,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2997,7 +3000,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="message" sheetId="1" r:id="rId4"/>
-    <sheet name="hint" sheetId="2" r:id="rId5"/>
+    <sheet name="uitext" sheetId="2" r:id="rId5"/>
+    <sheet name="hint" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -514,7 +515,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -528,6 +529,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1783,7 +1787,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2191,7 +2195,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2199,7 +2203,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2207,7 +2211,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2215,7 +2219,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2223,7 +2227,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -2231,7 +2235,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2239,7 +2243,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -2247,7 +2251,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2255,7 +2259,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2263,7 +2267,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2271,7 +2275,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2279,7 +2283,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2287,7 +2291,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2295,7 +2299,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2319,134 +2323,6 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" ht="20" customHeight="1">
-      <c r="A67" s="3">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s" s="4">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" ht="20" customHeight="1">
-      <c r="A68" s="3">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" ht="20" customHeight="1">
-      <c r="A69" s="3">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" ht="20" customHeight="1">
-      <c r="A70" s="3">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" ht="20" customHeight="1">
-      <c r="A71" s="3">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" ht="20" customHeight="1">
-      <c r="A72" s="3">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" ht="20" customHeight="1">
-      <c r="A73" s="3">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="74" ht="20" customHeight="1">
-      <c r="A74" s="3">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" ht="20" customHeight="1">
-      <c r="A75" s="3">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s" s="4">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="76" ht="20" customHeight="1">
-      <c r="A76" s="3">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s" s="4">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="77" ht="20" customHeight="1">
-      <c r="A77" s="3">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="78" ht="20" customHeight="1">
-      <c r="A78" s="3">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s" s="4">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="79" ht="20" customHeight="1">
-      <c r="A79" s="3">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s" s="4">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="80" ht="20" customHeight="1">
-      <c r="A80" s="3">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="81" ht="20" customHeight="1">
-      <c r="A81" s="3">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" ht="20" customHeight="1">
-      <c r="A82" s="3">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s" s="4">
         <v>50</v>
       </c>
     </row>
@@ -2464,15 +2340,320 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="3.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="48.2031" style="5" customWidth="1"/>
+    <col min="3" max="256" width="9" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="14.95" customHeight="1">
+      <c r="A2" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s" s="4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s" s="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s" s="4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s" s="4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s" s="4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s" s="4">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="42.25" style="5" customWidth="1"/>
-    <col min="3" max="256" width="12.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="42.25" style="6" customWidth="1"/>
+    <col min="3" max="256" width="12.25" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.95" customHeight="1">

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
   <si>
     <t>id</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>アイテム所持上限が&lt;val1&gt;増えた（最大&lt;val2&gt;）</t>
+  </si>
+  <si>
+    <t>武器を強化して&lt;val1&gt;になった</t>
+  </si>
+  <si>
+    <t>装備を強化して&lt;val1&gt;になった</t>
   </si>
   <si>
     <t>ダミー</t>
@@ -2195,7 +2201,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2203,7 +2209,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2211,7 +2217,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2219,7 +2225,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2227,7 +2233,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -2235,7 +2241,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2243,7 +2249,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -2251,7 +2257,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2259,7 +2265,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2267,7 +2273,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2275,7 +2281,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2283,7 +2289,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2291,7 +2297,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2299,7 +2305,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2307,7 +2313,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -2315,7 +2321,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2323,7 +2329,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2372,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2380,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2388,7 +2394,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2396,7 +2402,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2404,7 +2410,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2412,7 +2418,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2420,7 +2426,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2428,7 +2434,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2436,7 +2442,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2444,7 +2450,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2452,7 +2458,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2460,7 +2466,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2468,7 +2474,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2476,7 +2482,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2484,7 +2490,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2492,7 +2498,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2500,7 +2506,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2508,7 +2514,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2516,7 +2522,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2524,7 +2530,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2532,7 +2538,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2540,7 +2546,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2548,7 +2554,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2556,7 +2562,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2564,7 +2570,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2572,7 +2578,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2580,7 +2586,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2588,7 +2594,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2596,7 +2602,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2604,7 +2610,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2612,7 +2618,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2620,7 +2626,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -2628,7 +2634,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2677,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2685,7 +2691,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2693,7 +2699,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2701,7 +2707,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2709,7 +2715,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2717,7 +2723,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2725,7 +2731,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2733,7 +2739,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2741,7 +2747,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2749,7 +2755,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2757,7 +2763,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2765,7 +2771,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2773,7 +2779,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2781,7 +2787,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2789,7 +2795,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2797,7 +2803,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2805,7 +2811,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2813,7 +2819,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2821,7 +2827,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2829,7 +2835,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2837,7 +2843,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2845,7 +2851,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2853,7 +2859,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2861,7 +2867,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2869,7 +2875,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2877,7 +2883,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2885,7 +2891,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2893,7 +2899,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2901,7 +2907,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2909,7 +2915,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2917,7 +2923,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2925,7 +2931,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -2933,7 +2939,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -2941,7 +2947,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -2949,7 +2955,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -2957,7 +2963,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -2965,7 +2971,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -2973,7 +2979,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -2981,7 +2987,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -2989,7 +2995,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -2997,7 +3003,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -3005,7 +3011,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -3013,7 +3019,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -3021,7 +3027,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -3029,7 +3035,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -3037,7 +3043,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -3045,7 +3051,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -3053,7 +3059,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -3061,7 +3067,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -3069,7 +3075,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -3077,7 +3083,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -3085,7 +3091,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -3093,7 +3099,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -3101,7 +3107,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -3109,7 +3115,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -3117,7 +3123,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -3125,7 +3131,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -3133,7 +3139,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -3141,7 +3147,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -3149,7 +3155,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -3157,7 +3163,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -3165,7 +3171,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -3173,7 +3179,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -3181,7 +3187,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
   <si>
     <t>id</t>
   </si>
@@ -22,6 +22,9 @@
     <t>msg</t>
   </si>
   <si>
+    <t>color</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -31,15 +34,24 @@
     <t>&lt;val1&gt;は&lt;val2&gt;ダメージを受けた</t>
   </si>
   <si>
+    <t>yellow</t>
+  </si>
+  <si>
     <t>&lt;val1&gt;に&lt;val2&gt;ダメージを与えた</t>
   </si>
   <si>
+    <t>orange</t>
+  </si>
+  <si>
     <t>&lt;val1&gt;を倒した</t>
   </si>
   <si>
     <t>&lt;val1&gt;を捨てた</t>
   </si>
   <si>
+    <t>green</t>
+  </si>
+  <si>
     <t>&lt;val1&gt;を食べた</t>
   </si>
   <si>
@@ -55,10 +67,16 @@
     <t>&lt;val1&gt;は攻撃をかわした</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>&lt;val1&gt;はレベルアップした</t>
   </si>
   <si>
     <t>&lt;val1&gt;はレベル&lt;val2&gt;になった</t>
+  </si>
+  <si>
+    <t>blue</t>
   </si>
   <si>
     <t>アイテムがいっぱいなので拾えなかった</t>
@@ -1793,7 +1811,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1801,7 +1819,8 @@
   <cols>
     <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="48.2031" style="1" customWidth="1"/>
-    <col min="3" max="256" width="9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.09375" style="1" customWidth="1"/>
+    <col min="4" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.95" customHeight="1">
@@ -1811,13 +1830,19 @@
       <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" ht="14.95" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s" s="4">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s" s="4">
+        <v>4</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
@@ -1825,7 +1850,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -1833,7 +1861,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C4" t="s" s="4">
+        <v>8</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -1841,7 +1872,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C5" t="s" s="4">
+        <v>8</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -1849,7 +1883,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C6" t="s" s="4">
+        <v>11</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -1857,7 +1894,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="C7" t="s" s="4">
+        <v>11</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -1865,7 +1905,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C8" t="s" s="4">
+        <v>11</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -1873,7 +1916,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="C9" t="s" s="4">
+        <v>11</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -1881,6 +1927,9 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1889,7 +1938,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="C11" t="s" s="4">
+        <v>17</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -1897,7 +1949,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="C12" t="s" s="4">
+        <v>8</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -1905,7 +1960,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="C13" t="s" s="4">
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -1913,7 +1971,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="C14" t="s" s="4">
+        <v>11</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -1921,7 +1982,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="C15" t="s" s="4">
+        <v>11</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -1929,7 +1993,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="C16" t="s" s="4">
+        <v>11</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -1937,7 +2004,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="C17" t="s" s="4">
+        <v>11</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -1945,7 +2015,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="C18" t="s" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -1953,7 +2026,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="C19" t="s" s="4">
+        <v>11</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -1961,7 +2037,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="C20" t="s" s="4">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -1969,7 +2048,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="C21" t="s" s="4">
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -1977,7 +2059,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="C22" t="s" s="4">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -1985,7 +2070,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="C23" t="s" s="4">
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -1993,7 +2081,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="C24" t="s" s="4">
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2001,7 +2092,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="C25" t="s" s="4">
+        <v>11</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2009,7 +2103,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="C26" t="s" s="4">
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2017,7 +2114,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="C27" t="s" s="4">
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2025,7 +2125,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="C28" t="s" s="4">
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2033,7 +2136,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="C29" t="s" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2041,7 +2147,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="C30" t="s" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2049,7 +2158,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="C31" t="s" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2057,7 +2169,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="C32" t="s" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2065,7 +2180,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="C33" t="s" s="4">
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2073,7 +2191,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="C34" t="s" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -2081,7 +2202,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="C35" t="s" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -2089,7 +2213,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="C36" t="s" s="4">
+        <v>11</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -2097,7 +2224,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="C37" t="s" s="4">
+        <v>17</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -2105,7 +2235,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>39</v>
+        <v>45</v>
+      </c>
+      <c r="C38" t="s" s="4">
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -2113,7 +2246,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="C39" t="s" s="4">
+        <v>11</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -2121,7 +2257,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="C40" t="s" s="4">
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -2129,7 +2268,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>42</v>
+        <v>48</v>
+      </c>
+      <c r="C41" t="s" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -2137,7 +2279,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>43</v>
+        <v>49</v>
+      </c>
+      <c r="C42" t="s" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -2145,7 +2290,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="C43" t="s" s="4">
+        <v>11</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -2153,7 +2301,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="C44" t="s" s="4">
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -2161,7 +2312,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="C45" t="s" s="4">
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -2169,7 +2323,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="C46" t="s" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -2177,7 +2334,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>48</v>
+        <v>54</v>
+      </c>
+      <c r="C47" t="s" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -2185,7 +2345,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>49</v>
+        <v>55</v>
+      </c>
+      <c r="C48" t="s" s="4">
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -2193,7 +2356,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="C49" t="s" s="4">
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -2201,7 +2367,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>51</v>
+        <v>57</v>
+      </c>
+      <c r="C50" t="s" s="4">
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -2209,7 +2378,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="C51" t="s" s="4">
+        <v>17</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2217,7 +2389,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="C52" t="s" s="4">
+        <v>17</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2225,7 +2400,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="C53" t="s" s="4">
+        <v>17</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2233,7 +2411,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="C54" t="s" s="4">
+        <v>17</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -2241,7 +2422,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="C55" t="s" s="4">
+        <v>17</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2249,7 +2433,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="C56" t="s" s="4">
+        <v>17</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -2257,7 +2444,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="C57" t="s" s="4">
+        <v>17</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2265,7 +2455,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="C58" t="s" s="4">
+        <v>17</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -2273,7 +2466,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="C59" t="s" s="4">
+        <v>17</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -2281,7 +2477,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="C60" t="s" s="4">
+        <v>17</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -2289,7 +2488,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="C61" t="s" s="4">
+        <v>17</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -2297,7 +2499,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="C62" t="s" s="4">
+        <v>17</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -2305,7 +2510,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="C63" t="s" s="4">
+        <v>17</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -2313,7 +2521,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="C64" t="s" s="4">
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -2321,7 +2532,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="C65" t="s" s="4">
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -2329,7 +2543,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="C66" t="s" s="4">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2367,10 +2584,10 @@
     </row>
     <row r="2" ht="14.95" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
@@ -2378,7 +2595,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2386,7 +2603,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2394,7 +2611,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2402,7 +2619,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2410,7 +2627,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2418,7 +2635,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2426,7 +2643,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2434,7 +2651,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2442,7 +2659,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2450,7 +2667,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2458,7 +2675,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2466,7 +2683,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2474,7 +2691,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2482,7 +2699,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2490,7 +2707,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2498,7 +2715,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2506,7 +2723,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2514,7 +2731,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2522,7 +2739,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2530,7 +2747,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2538,7 +2755,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2546,7 +2763,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2554,7 +2771,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2562,7 +2779,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2570,7 +2787,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2578,7 +2795,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2586,7 +2803,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2594,7 +2811,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2602,7 +2819,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2610,7 +2827,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2618,7 +2835,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2626,7 +2843,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -2634,7 +2851,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2672,10 +2889,10 @@
     </row>
     <row r="2" ht="14.95" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
@@ -2683,7 +2900,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2691,7 +2908,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2699,7 +2916,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2707,7 +2924,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2715,7 +2932,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2723,7 +2940,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2731,7 +2948,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2739,7 +2956,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2747,7 +2964,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2755,7 +2972,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2763,7 +2980,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2771,7 +2988,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2779,7 +2996,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2787,7 +3004,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2795,7 +3012,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2803,7 +3020,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2811,7 +3028,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2819,7 +3036,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2827,7 +3044,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2835,7 +3052,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2843,7 +3060,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2851,7 +3068,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2859,7 +3076,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2867,7 +3084,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2875,7 +3092,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2883,7 +3100,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2891,7 +3108,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2899,7 +3116,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2907,7 +3124,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2915,7 +3132,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2923,7 +3140,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2931,7 +3148,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -2939,7 +3156,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -2947,7 +3164,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -2955,7 +3172,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -2963,7 +3180,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -2971,7 +3188,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -2979,7 +3196,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -2987,7 +3204,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -2995,7 +3212,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -3003,7 +3220,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -3011,7 +3228,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -3019,7 +3236,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -3027,7 +3244,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -3035,7 +3252,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -3043,7 +3260,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -3051,7 +3268,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -3059,7 +3276,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -3067,7 +3284,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -3075,7 +3292,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -3083,7 +3300,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -3091,7 +3308,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -3099,7 +3316,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -3107,7 +3324,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -3115,7 +3332,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -3123,7 +3340,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -3131,7 +3348,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -3139,7 +3356,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -3147,7 +3364,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -3155,7 +3372,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -3163,7 +3380,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -3171,7 +3388,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -3179,7 +3396,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -3187,7 +3404,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
   <si>
     <t>id</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>装備を強化して&lt;val1&gt;になった</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;とHPを交換した</t>
   </si>
   <si>
     <t>ダミー</t>
@@ -2381,7 +2384,7 @@
         <v>58</v>
       </c>
       <c r="C51" t="s" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -2389,7 +2392,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s" s="4">
         <v>17</v>
@@ -2400,7 +2403,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s" s="4">
         <v>17</v>
@@ -2411,7 +2414,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s" s="4">
         <v>17</v>
@@ -2422,7 +2425,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s" s="4">
         <v>17</v>
@@ -2433,7 +2436,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s" s="4">
         <v>17</v>
@@ -2444,7 +2447,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s" s="4">
         <v>17</v>
@@ -2455,7 +2458,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C58" t="s" s="4">
         <v>17</v>
@@ -2466,7 +2469,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C59" t="s" s="4">
         <v>17</v>
@@ -2477,7 +2480,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C60" t="s" s="4">
         <v>17</v>
@@ -2488,7 +2491,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C61" t="s" s="4">
         <v>17</v>
@@ -2499,7 +2502,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C62" t="s" s="4">
         <v>17</v>
@@ -2510,7 +2513,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C63" t="s" s="4">
         <v>17</v>
@@ -2521,7 +2524,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C64" t="s" s="4">
         <v>17</v>
@@ -2532,7 +2535,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C65" t="s" s="4">
         <v>17</v>
@@ -2543,7 +2546,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C66" t="s" s="4">
         <v>17</v>
@@ -2595,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2603,7 +2606,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2611,7 +2614,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2619,7 +2622,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2627,7 +2630,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2635,7 +2638,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2643,7 +2646,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2651,7 +2654,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2659,7 +2662,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2667,7 +2670,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2675,7 +2678,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2683,7 +2686,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2691,7 +2694,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2699,7 +2702,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2707,7 +2710,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2715,7 +2718,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2723,7 +2726,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2731,7 +2734,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2739,7 +2742,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2747,7 +2750,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2755,7 +2758,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2763,7 +2766,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2771,7 +2774,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2779,7 +2782,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2787,7 +2790,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2795,7 +2798,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2803,7 +2806,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2811,7 +2814,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2819,7 +2822,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2827,7 +2830,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2835,7 +2838,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2843,7 +2846,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -2851,7 +2854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2900,7 +2903,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2908,7 +2911,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2916,7 +2919,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2924,7 +2927,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2932,7 +2935,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2940,7 +2943,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2948,7 +2951,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2956,7 +2959,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2964,7 +2967,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2972,7 +2975,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2980,7 +2983,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2988,7 +2991,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2996,7 +2999,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -3004,7 +3007,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -3012,7 +3015,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -3020,7 +3023,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -3028,7 +3031,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -3036,7 +3039,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -3044,7 +3047,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -3052,7 +3055,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -3060,7 +3063,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -3068,7 +3071,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -3076,7 +3079,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -3084,7 +3087,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -3092,7 +3095,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -3100,7 +3103,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -3108,7 +3111,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -3116,7 +3119,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -3124,7 +3127,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -3132,7 +3135,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -3140,7 +3143,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -3148,7 +3151,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -3156,7 +3159,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -3164,7 +3167,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -3172,7 +3175,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -3180,7 +3183,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -3188,7 +3191,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -3196,7 +3199,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -3204,7 +3207,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -3212,7 +3215,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -3220,7 +3223,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -3228,7 +3231,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -3236,7 +3239,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -3244,7 +3247,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -3252,7 +3255,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -3260,7 +3263,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -3268,7 +3271,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -3276,7 +3279,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -3284,7 +3287,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -3292,7 +3295,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -3300,7 +3303,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -3308,7 +3311,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -3316,7 +3319,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -3324,7 +3327,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -3332,7 +3335,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -3340,7 +3343,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -3348,7 +3351,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -3356,7 +3359,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -3364,7 +3367,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -3372,7 +3375,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -3380,7 +3383,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -3388,7 +3391,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -3396,7 +3399,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -3404,7 +3407,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
   <si>
     <t>id</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>&lt;val1&gt;とHPを交換した</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;を手に入れた</t>
   </si>
   <si>
     <t>ダミー</t>
@@ -2395,7 +2398,7 @@
         <v>59</v>
       </c>
       <c r="C52" t="s" s="4">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -2403,7 +2406,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s" s="4">
         <v>17</v>
@@ -2414,7 +2417,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s" s="4">
         <v>17</v>
@@ -2425,7 +2428,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s" s="4">
         <v>17</v>
@@ -2436,7 +2439,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s" s="4">
         <v>17</v>
@@ -2447,7 +2450,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s" s="4">
         <v>17</v>
@@ -2458,7 +2461,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s" s="4">
         <v>17</v>
@@ -2469,7 +2472,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s" s="4">
         <v>17</v>
@@ -2480,7 +2483,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C60" t="s" s="4">
         <v>17</v>
@@ -2491,7 +2494,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s" s="4">
         <v>17</v>
@@ -2502,7 +2505,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s" s="4">
         <v>17</v>
@@ -2513,7 +2516,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s" s="4">
         <v>17</v>
@@ -2524,7 +2527,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C64" t="s" s="4">
         <v>17</v>
@@ -2535,7 +2538,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C65" t="s" s="4">
         <v>17</v>
@@ -2546,7 +2549,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C66" t="s" s="4">
         <v>17</v>
@@ -2598,7 +2601,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2606,7 +2609,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2614,7 +2617,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2622,7 +2625,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2630,7 +2633,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2638,7 +2641,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2646,7 +2649,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2654,7 +2657,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2662,7 +2665,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2670,7 +2673,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2678,7 +2681,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2686,7 +2689,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2694,7 +2697,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2702,7 +2705,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2710,7 +2713,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2718,7 +2721,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2726,7 +2729,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2734,7 +2737,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2742,7 +2745,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2750,7 +2753,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2758,7 +2761,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2766,7 +2769,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2774,7 +2777,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2782,7 +2785,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2790,7 +2793,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2798,7 +2801,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2806,7 +2809,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2814,7 +2817,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2822,7 +2825,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2830,7 +2833,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2838,7 +2841,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2846,7 +2849,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -2854,7 +2857,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2903,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2911,7 +2914,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2919,7 +2922,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2927,7 +2930,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2935,7 +2938,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2943,7 +2946,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2951,7 +2954,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2959,7 +2962,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2967,7 +2970,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2975,7 +2978,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2983,7 +2986,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2991,7 +2994,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2999,7 +3002,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -3007,7 +3010,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -3015,7 +3018,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -3023,7 +3026,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -3031,7 +3034,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -3039,7 +3042,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -3047,7 +3050,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -3055,7 +3058,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -3063,7 +3066,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -3071,7 +3074,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -3079,7 +3082,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -3087,7 +3090,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -3095,7 +3098,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -3103,7 +3106,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -3111,7 +3114,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -3119,7 +3122,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -3127,7 +3130,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -3135,7 +3138,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -3143,7 +3146,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -3151,7 +3154,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -3159,7 +3162,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -3167,7 +3170,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -3175,7 +3178,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -3183,7 +3186,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -3191,7 +3194,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -3199,7 +3202,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -3207,7 +3210,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -3215,7 +3218,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -3223,7 +3226,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -3231,7 +3234,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -3239,7 +3242,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -3247,7 +3250,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -3255,7 +3258,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -3263,7 +3266,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -3271,7 +3274,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -3279,7 +3282,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -3287,7 +3290,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -3295,7 +3298,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -3303,7 +3306,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -3311,7 +3314,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -3319,7 +3322,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -3327,7 +3330,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -3335,7 +3338,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -3343,7 +3346,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -3351,7 +3354,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -3359,7 +3362,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -3367,7 +3370,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -3375,7 +3378,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -3383,7 +3386,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -3391,7 +3394,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -3399,7 +3402,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -3407,7 +3410,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -9,12 +9,13 @@
     <sheet name="message" sheetId="1" r:id="rId4"/>
     <sheet name="uitext" sheetId="2" r:id="rId5"/>
     <sheet name="hint" sheetId="3" r:id="rId6"/>
+    <sheet name="nameentry" sheetId="4" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
   <si>
     <t>id</t>
   </si>
@@ -455,6 +456,21 @@
   </si>
   <si>
     <t>チュートリアルメッセージ64</t>
+  </si>
+  <si>
+    <t>キーボードから名前を入力します(英数字のみ)</t>
+  </si>
+  <si>
+    <t>名前を消去します</t>
+  </si>
+  <si>
+    <t>名前を自動入力します(男性)</t>
+  </si>
+  <si>
+    <t>名前を自動入力します(女性)</t>
+  </si>
+  <si>
+    <t>タイトル画面に戻ります</t>
   </si>
 </sst>
 </file>
@@ -545,7 +561,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -559,6 +575,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -3420,4 +3439,85 @@
     <oddFooter>&amp;L&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="42.25" style="7" customWidth="1"/>
+    <col min="3" max="256" width="12.25" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="14.95" customHeight="1">
+      <c r="A2" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s" s="4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s" s="4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s" s="4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" s="4">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -10,12 +10,13 @@
     <sheet name="uitext" sheetId="2" r:id="rId5"/>
     <sheet name="hint" sheetId="3" r:id="rId6"/>
     <sheet name="nameentry" sheetId="4" r:id="rId7"/>
+    <sheet name="deathtype" sheetId="5" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="158">
   <si>
     <t>id</t>
   </si>
@@ -471,6 +472,24 @@
   </si>
   <si>
     <t>タイトル画面に戻ります</t>
+  </si>
+  <si>
+    <t>ゲームクリア</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;に倒された</t>
+  </si>
+  <si>
+    <t>空腹で倒れた</t>
+  </si>
+  <si>
+    <t>ダメージ床で力尽きた</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;のダメージ反射で倒れた</t>
+  </si>
+  <si>
+    <t>毒のダメージで力尽きた</t>
   </si>
 </sst>
 </file>
@@ -561,7 +580,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -575,6 +594,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -3520,4 +3542,93 @@
     <oddFooter>&amp;L&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="42.25" style="8" customWidth="1"/>
+    <col min="3" max="256" width="12.25" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="14.95" customHeight="1">
+      <c r="A2" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s" s="4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s" s="4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s" s="4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" s="4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s" s="4">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -273,7 +273,7 @@
     <t>Zキーを押すと目の前の敵を攻撃できます</t>
   </si>
   <si>
-    <t>チュートリアルメッセージ3</t>
+    <t>ショップではアイテムの購入と売却ができます</t>
   </si>
   <si>
     <t>チュートリアルメッセージ4</t>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
   <si>
     <t>id</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>&lt;val1&gt;を手に入れた</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;はワープした</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;と&lt;val2&gt;の位置が入れ替わった</t>
   </si>
   <si>
     <t>ダミー</t>
@@ -2450,7 +2456,7 @@
         <v>60</v>
       </c>
       <c r="C53" t="s" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -2458,7 +2464,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s" s="4">
         <v>17</v>
@@ -2469,7 +2475,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C55" t="s" s="4">
         <v>17</v>
@@ -2480,7 +2486,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s" s="4">
         <v>17</v>
@@ -2491,7 +2497,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C57" t="s" s="4">
         <v>17</v>
@@ -2502,7 +2508,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s" s="4">
         <v>17</v>
@@ -2513,7 +2519,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s" s="4">
         <v>17</v>
@@ -2524,7 +2530,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s" s="4">
         <v>17</v>
@@ -2535,7 +2541,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s" s="4">
         <v>17</v>
@@ -2546,7 +2552,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s" s="4">
         <v>17</v>
@@ -2557,7 +2563,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C63" t="s" s="4">
         <v>17</v>
@@ -2568,7 +2574,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C64" t="s" s="4">
         <v>17</v>
@@ -2579,7 +2585,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s" s="4">
         <v>17</v>
@@ -2590,7 +2596,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C66" t="s" s="4">
         <v>17</v>
@@ -2642,7 +2648,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2650,7 +2656,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2658,7 +2664,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2666,7 +2672,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2674,7 +2680,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2682,7 +2688,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2690,7 +2696,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2698,7 +2704,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2706,7 +2712,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2714,7 +2720,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2722,7 +2728,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2730,7 +2736,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2738,7 +2744,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2746,7 +2752,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2754,7 +2760,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2762,7 +2768,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2770,7 +2776,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2778,7 +2784,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2786,7 +2792,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2794,7 +2800,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2802,7 +2808,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2810,7 +2816,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2818,7 +2824,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2826,7 +2832,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2834,7 +2840,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2842,7 +2848,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2850,7 +2856,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2858,7 +2864,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2866,7 +2872,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2874,7 +2880,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2882,7 +2888,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2890,7 +2896,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -2898,7 +2904,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2947,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2955,7 +2961,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2963,7 +2969,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2971,7 +2977,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2979,7 +2985,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2987,7 +2993,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2995,7 +3001,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -3003,7 +3009,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -3011,7 +3017,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -3019,7 +3025,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -3027,7 +3033,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -3035,7 +3041,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -3043,7 +3049,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -3051,7 +3057,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -3059,7 +3065,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -3067,7 +3073,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -3075,7 +3081,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -3083,7 +3089,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -3091,7 +3097,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -3099,7 +3105,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -3107,7 +3113,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -3115,7 +3121,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -3123,7 +3129,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -3131,7 +3137,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -3139,7 +3145,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -3147,7 +3153,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -3155,7 +3161,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -3163,7 +3169,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -3171,7 +3177,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -3179,7 +3185,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -3187,7 +3193,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -3195,7 +3201,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -3203,7 +3209,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -3211,7 +3217,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -3219,7 +3225,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -3227,7 +3233,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -3235,7 +3241,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -3243,7 +3249,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -3251,7 +3257,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -3259,7 +3265,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -3267,7 +3273,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -3275,7 +3281,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -3283,7 +3289,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -3291,7 +3297,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -3299,7 +3305,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -3307,7 +3313,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -3315,7 +3321,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -3323,7 +3329,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -3331,7 +3337,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -3339,7 +3345,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -3347,7 +3353,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -3355,7 +3361,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -3363,7 +3369,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -3371,7 +3377,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -3379,7 +3385,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -3387,7 +3393,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -3395,7 +3401,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -3403,7 +3409,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -3411,7 +3417,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -3419,7 +3425,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -3427,7 +3433,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -3435,7 +3441,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -3443,7 +3449,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -3451,7 +3457,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3500,7 +3506,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -3508,7 +3514,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -3516,7 +3522,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -3524,7 +3530,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -3532,7 +3538,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3581,7 +3587,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -3589,7 +3595,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -3597,7 +3603,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -3605,7 +3611,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -3613,7 +3619,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -3621,7 +3627,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
   <si>
     <t>id</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>&lt;val1&gt;と&lt;val2&gt;の位置が入れ替わった</t>
+  </si>
+  <si>
+    <t>&lt;val1&gt;のHPが最大まで回復した</t>
   </si>
   <si>
     <t>ダミー</t>
@@ -2478,7 +2481,7 @@
         <v>62</v>
       </c>
       <c r="C55" t="s" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -2486,7 +2489,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C56" t="s" s="4">
         <v>17</v>
@@ -2497,7 +2500,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C57" t="s" s="4">
         <v>17</v>
@@ -2508,7 +2511,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C58" t="s" s="4">
         <v>17</v>
@@ -2519,7 +2522,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s" s="4">
         <v>17</v>
@@ -2530,7 +2533,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s" s="4">
         <v>17</v>
@@ -2541,7 +2544,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s" s="4">
         <v>17</v>
@@ -2552,7 +2555,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s" s="4">
         <v>17</v>
@@ -2563,7 +2566,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C63" t="s" s="4">
         <v>17</v>
@@ -2574,7 +2577,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C64" t="s" s="4">
         <v>17</v>
@@ -2585,7 +2588,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C65" t="s" s="4">
         <v>17</v>
@@ -2596,7 +2599,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C66" t="s" s="4">
         <v>17</v>
@@ -2648,7 +2651,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2656,7 +2659,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2664,7 +2667,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2672,7 +2675,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2680,7 +2683,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2688,7 +2691,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2696,7 +2699,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2704,7 +2707,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2712,7 +2715,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2720,7 +2723,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2728,7 +2731,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2736,7 +2739,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2744,7 +2747,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2752,7 +2755,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2760,7 +2763,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2768,7 +2771,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2776,7 +2779,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2784,7 +2787,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2792,7 +2795,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2800,7 +2803,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2808,7 +2811,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2816,7 +2819,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2824,7 +2827,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2832,7 +2835,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2840,7 +2843,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2848,7 +2851,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2856,7 +2859,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2864,7 +2867,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2872,7 +2875,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2880,7 +2883,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2888,7 +2891,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2896,7 +2899,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -2904,7 +2907,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2953,7 +2956,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2961,7 +2964,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2969,7 +2972,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2977,7 +2980,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2985,7 +2988,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2993,7 +2996,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -3001,7 +3004,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -3009,7 +3012,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -3017,7 +3020,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -3025,7 +3028,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -3033,7 +3036,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -3041,7 +3044,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -3049,7 +3052,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -3057,7 +3060,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -3065,7 +3068,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -3073,7 +3076,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -3081,7 +3084,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -3089,7 +3092,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -3097,7 +3100,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -3105,7 +3108,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -3113,7 +3116,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -3121,7 +3124,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -3129,7 +3132,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -3137,7 +3140,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -3145,7 +3148,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -3153,7 +3156,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -3161,7 +3164,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -3169,7 +3172,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -3177,7 +3180,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -3185,7 +3188,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -3193,7 +3196,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -3201,7 +3204,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -3209,7 +3212,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -3217,7 +3220,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -3225,7 +3228,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -3233,7 +3236,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -3241,7 +3244,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -3249,7 +3252,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -3257,7 +3260,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -3265,7 +3268,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -3273,7 +3276,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -3281,7 +3284,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -3289,7 +3292,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -3297,7 +3300,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -3305,7 +3308,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -3313,7 +3316,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -3321,7 +3324,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -3329,7 +3332,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -3337,7 +3340,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -3345,7 +3348,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -3353,7 +3356,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -3361,7 +3364,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -3369,7 +3372,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -3377,7 +3380,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -3385,7 +3388,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -3393,7 +3396,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -3401,7 +3404,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -3409,7 +3412,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -3417,7 +3420,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -3425,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -3433,7 +3436,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -3441,7 +3444,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -3449,7 +3452,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -3457,7 +3460,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3506,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -3514,7 +3517,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -3522,7 +3525,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -3530,7 +3533,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -3538,7 +3541,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3587,7 +3590,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -3595,7 +3598,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -3603,7 +3606,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -3611,7 +3614,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -3619,7 +3622,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -3627,7 +3630,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -10,13 +10,14 @@
     <sheet name="uitext" sheetId="2" r:id="rId5"/>
     <sheet name="hint" sheetId="3" r:id="rId6"/>
     <sheet name="nameentry" sheetId="4" r:id="rId7"/>
-    <sheet name="deathtype" sheetId="5" r:id="rId8"/>
+    <sheet name="title" sheetId="5" r:id="rId8"/>
+    <sheet name="deathtype" sheetId="6" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="165">
   <si>
     <t>id</t>
   </si>
@@ -481,6 +482,18 @@
   </si>
   <si>
     <t>タイトル画面に戻ります</t>
+  </si>
+  <si>
+    <t>新規にゲームを開始します</t>
+  </si>
+  <si>
+    <t>中断したところからゲームを再開します</t>
+  </si>
+  <si>
+    <t>名前を変更します</t>
+  </si>
+  <si>
+    <t>オープニングデモを見ます</t>
   </si>
   <si>
     <t>ゲームクリア</t>
@@ -589,7 +602,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -603,6 +616,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -3558,7 +3574,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3622,7 +3638,88 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="42.25" style="9" customWidth="1"/>
+    <col min="3" max="256" width="12.25" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="14.95" customHeight="1">
+      <c r="A2" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s" s="4">
         <v>159</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s" s="4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" s="4">
+        <v>163</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -3630,7 +3727,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -292,7 +292,7 @@
     <t>チュートリアルメッセージ5</t>
   </si>
   <si>
-    <t>チュートリアルメッセージ6</t>
+    <t>ブロックは攻撃すると壊すことができます</t>
   </si>
   <si>
     <t>チュートリアルメッセージ7</t>
@@ -304,7 +304,7 @@
     <t>チュートリアルメッセージ9</t>
   </si>
   <si>
-    <t>チュートリアルメッセージ10</t>
+    <t>矢印は反対方向から侵入することができません</t>
   </si>
   <si>
     <t>チュートリアルメッセージ11</t>
@@ -316,7 +316,7 @@
     <t>チュートリアルメッセージ13</t>
   </si>
   <si>
-    <t>チュートリアルメッセージ14</t>
+    <t>扉は一定数敵を倒すと開きます</t>
   </si>
   <si>
     <t>チュートリアルメッセージ15</t>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -277,7 +277,7 @@
     <t>上下キー:項目の移動 / Z:購入 / X:キャンセル</t>
   </si>
   <si>
-    <t>Xキーを押すとメニューを開くことができます</t>
+    <t>Xキーを押すとメニューを開きます</t>
   </si>
   <si>
     <t>Zキーを押すと目の前の敵を攻撃できます</t>
@@ -292,7 +292,7 @@
     <t>チュートリアルメッセージ5</t>
   </si>
   <si>
-    <t>ブロックは攻撃すると壊すことができます</t>
+    <t>ブロックは攻撃すると壊れます</t>
   </si>
   <si>
     <t>チュートリアルメッセージ7</t>
@@ -304,13 +304,13 @@
     <t>チュートリアルメッセージ9</t>
   </si>
   <si>
-    <t>矢印は反対方向から侵入することができません</t>
+    <t>矢印は反対方向から侵入できません</t>
   </si>
   <si>
     <t>チュートリアルメッセージ11</t>
   </si>
   <si>
-    <t>チュートリアルメッセージ12</t>
+    <t>赤くなったピットを次のターンで踏むとダメージを受けます</t>
   </si>
   <si>
     <t>チュートリアルメッセージ13</t>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="166">
   <si>
     <t>id</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>&lt;val1&gt;のHPが最大まで回復した</t>
+  </si>
+  <si>
+    <t>ナイトメアの出現を&lt;val1&gt;ターン遅らせた</t>
   </si>
   <si>
     <t>ダミー</t>
@@ -2516,7 +2519,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s" s="4">
         <v>17</v>
@@ -2527,7 +2530,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s" s="4">
         <v>17</v>
@@ -2538,7 +2541,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s" s="4">
         <v>17</v>
@@ -2549,7 +2552,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s" s="4">
         <v>17</v>
@@ -2560,7 +2563,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s" s="4">
         <v>17</v>
@@ -2571,7 +2574,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s" s="4">
         <v>17</v>
@@ -2582,7 +2585,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s" s="4">
         <v>17</v>
@@ -2593,7 +2596,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C64" t="s" s="4">
         <v>17</v>
@@ -2604,7 +2607,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C65" t="s" s="4">
         <v>17</v>
@@ -2615,7 +2618,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C66" t="s" s="4">
         <v>17</v>
@@ -2667,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2675,7 +2678,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2683,7 +2686,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2691,7 +2694,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2699,7 +2702,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2707,7 +2710,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2715,7 +2718,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2723,7 +2726,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2731,7 +2734,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2739,7 +2742,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2747,7 +2750,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2755,7 +2758,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2763,7 +2766,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2771,7 +2774,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2779,7 +2782,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2787,7 +2790,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2795,7 +2798,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2803,7 +2806,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2811,7 +2814,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2819,7 +2822,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2827,7 +2830,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2835,7 +2838,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -2843,7 +2846,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -2851,7 +2854,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -2859,7 +2862,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -2867,7 +2870,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -2875,7 +2878,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -2883,7 +2886,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -2891,7 +2894,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -2899,7 +2902,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -2907,7 +2910,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -2915,7 +2918,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -2923,7 +2926,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2972,7 +2975,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2980,7 +2983,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2988,7 +2991,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2996,7 +2999,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -3004,7 +3007,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -3012,7 +3015,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -3020,7 +3023,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -3028,7 +3031,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -3036,7 +3039,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -3044,7 +3047,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -3052,7 +3055,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -3060,7 +3063,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -3068,7 +3071,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -3076,7 +3079,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -3084,7 +3087,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -3092,7 +3095,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -3100,7 +3103,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -3108,7 +3111,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -3116,7 +3119,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -3124,7 +3127,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -3132,7 +3135,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -3140,7 +3143,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -3148,7 +3151,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -3156,7 +3159,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -3164,7 +3167,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -3172,7 +3175,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -3180,7 +3183,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -3188,7 +3191,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -3196,7 +3199,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -3204,7 +3207,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -3212,7 +3215,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -3220,7 +3223,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -3228,7 +3231,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -3236,7 +3239,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -3244,7 +3247,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -3252,7 +3255,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -3260,7 +3263,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -3268,7 +3271,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -3276,7 +3279,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -3284,7 +3287,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -3292,7 +3295,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -3300,7 +3303,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -3308,7 +3311,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -3316,7 +3319,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -3324,7 +3327,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -3332,7 +3335,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -3340,7 +3343,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -3348,7 +3351,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -3356,7 +3359,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -3364,7 +3367,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -3372,7 +3375,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -3380,7 +3383,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -3388,7 +3391,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -3396,7 +3399,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -3404,7 +3407,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -3412,7 +3415,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -3420,7 +3423,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -3428,7 +3431,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -3436,7 +3439,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -3444,7 +3447,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -3452,7 +3455,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -3460,7 +3463,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -3468,7 +3471,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -3476,7 +3479,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3525,7 +3528,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -3533,7 +3536,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -3541,7 +3544,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -3549,7 +3552,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -3557,7 +3560,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3606,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -3614,7 +3617,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -3622,7 +3625,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -3630,7 +3633,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -3638,7 +3641,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3687,7 +3690,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -3695,7 +3698,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -3703,7 +3706,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -3711,7 +3714,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -3719,7 +3722,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -3727,7 +3730,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -298,7 +298,7 @@
     <t>ブロックは攻撃すると壊れます</t>
   </si>
   <si>
-    <t>チュートリアルメッセージ7</t>
+    <t>水辺は通過することができません</t>
   </si>
   <si>
     <t>チュートリアルメッセージ8</t>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -298,7 +298,7 @@
     <t>ブロックは攻撃すると壊れます</t>
   </si>
   <si>
-    <t>水辺は通過することができません</t>
+    <t>水たまりは通過することができません</t>
   </si>
   <si>
     <t>チュートリアルメッセージ8</t>
@@ -310,10 +310,10 @@
     <t>矢印は反対方向から侵入できません</t>
   </si>
   <si>
-    <t>チュートリアルメッセージ11</t>
-  </si>
-  <si>
     <t>赤くなったピットを次のターンで踏むとダメージを受けます</t>
+  </si>
+  <si>
+    <t>チュートリアルメッセージ12</t>
   </si>
   <si>
     <t>チュートリアルメッセージ13</t>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -12,12 +12,13 @@
     <sheet name="nameentry" sheetId="4" r:id="rId7"/>
     <sheet name="title" sheetId="5" r:id="rId8"/>
     <sheet name="deathtype" sheetId="6" r:id="rId9"/>
+    <sheet name="staffroll" sheetId="7" r:id="rId10"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
   <si>
     <t>id</t>
   </si>
@@ -515,6 +516,134 @@
   </si>
   <si>
     <t>毒のダメージで力尽きた</t>
+  </si>
+  <si>
+    <t>スタッフ</t>
+  </si>
+  <si>
+    <t>ゲームデザイン：　しゅん</t>
+  </si>
+  <si>
+    <t>キャラクターデザイン：　炎堂たつや</t>
+  </si>
+  <si>
+    <t>キャラクタードット絵：　MAKIさん</t>
+  </si>
+  <si>
+    <t>アイテムドット絵：　しゅん</t>
+  </si>
+  <si>
+    <t>ダンジョンチップ：　炎堂たつや</t>
+  </si>
+  <si>
+    <t>　　　　　　　　　　しゅん</t>
+  </si>
+  <si>
+    <t>UIデザイン：　しゅん</t>
+  </si>
+  <si>
+    <t>イベント画像：　しゅん</t>
+  </si>
+  <si>
+    <t>リザルト画像：　炎堂たつや</t>
+  </si>
+  <si>
+    <t>画像素材提供</t>
+  </si>
+  <si>
+    <t>モンスタードット絵：　DENZI様</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>「DENZI部屋」</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="11"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>http://www3.wind.ne.jp/DENZI/diary/</t>
+    </r>
+  </si>
+  <si>
+    <t>イベントチップ：　ぴぽや様</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>「ぴぽや」</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="11"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>http://piposozai.blog76.fc2.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+  </si>
+  <si>
+    <t>プログラム：　しゅん</t>
+  </si>
+  <si>
+    <t>サウンド：　しゅん</t>
+  </si>
+  <si>
+    <t>シナリオ：　炎堂たつや</t>
+  </si>
+  <si>
+    <t>　　　　　　しゅん</t>
+  </si>
+  <si>
+    <t>テストプレイ：　しゅん</t>
+  </si>
+  <si>
+    <t>　　　　　　　　炎堂たつや</t>
+  </si>
+  <si>
+    <t>　　　　　　　　ANDOさん</t>
+  </si>
+  <si>
+    <t>　　　　　　　　TAKIさん</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>制作：　</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="11"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>2dgames.jp</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -524,7 +653,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -553,6 +682,12 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color indexed="11"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
     </font>
   </fonts>
@@ -605,7 +740,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -636,6 +771,12 @@
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,6 +796,7 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -3740,4 +3882,350 @@
     <oddFooter>&amp;L&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="42.25" style="10" customWidth="1"/>
+    <col min="3" max="256" width="12.25" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="14.95" customHeight="1">
+      <c r="A2" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s" s="4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" ht="20" customHeight="1">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11"/>
+    </row>
+    <row r="6" ht="20" customHeight="1">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" ht="20" customHeight="1">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" ht="20" customHeight="1">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s" s="4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s" s="4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s" s="4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s" s="4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s" s="4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s" s="4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s" s="4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" ht="20" customHeight="1">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" ht="20" customHeight="1">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s" s="4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s" s="4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s" s="4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s" s="4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="11"/>
+    </row>
+    <row r="25" ht="20" customHeight="1">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" ht="20" customHeight="1">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s" s="4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" ht="20" customHeight="1">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" ht="20" customHeight="1">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s" s="4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="11"/>
+    </row>
+    <row r="31" ht="20" customHeight="1">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="11"/>
+    </row>
+    <row r="32" ht="20" customHeight="1">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s" s="4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s" s="4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="11"/>
+    </row>
+    <row r="35" ht="20" customHeight="1">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="11"/>
+    </row>
+    <row r="36" ht="20" customHeight="1">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s" s="4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s" s="4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s" s="4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s" s="4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="11"/>
+    </row>
+    <row r="41" ht="20" customHeight="1">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="11"/>
+    </row>
+    <row r="42" ht="20" customHeight="1">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="11"/>
+    </row>
+    <row r="43" ht="20" customHeight="1">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="11"/>
+    </row>
+    <row r="44" ht="20" customHeight="1">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s" s="4">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B21" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="B23" r:id="rId2" location="" tooltip="" display=""/>
+    <hyperlink ref="B44" r:id="rId3" location="" tooltip="" display=""/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="192">
   <si>
     <t>id</t>
   </si>
@@ -548,7 +548,7 @@
     <t>リザルト画像：　炎堂たつや</t>
   </si>
   <si>
-    <t>画像素材提供</t>
+    <t>■画像素材提供</t>
   </si>
   <si>
     <t>モンスタードット絵：　DENZI様</t>
@@ -560,7 +560,7 @@
         <color indexed="8"/>
         <rFont val="ヒラギノ角ゴ ProN W3"/>
       </rPr>
-      <t>「DENZI部屋」</t>
+      <t>・「DENZI部屋」</t>
     </r>
     <r>
       <rPr>
@@ -582,7 +582,7 @@
         <color indexed="8"/>
         <rFont val="ヒラギノ角ゴ ProN W3"/>
       </rPr>
-      <t>「ぴぽや」</t>
+      <t>・「ぴぽや」</t>
     </r>
     <r>
       <rPr>
@@ -615,6 +615,9 @@
     <t>　　　　　　しゅん</t>
   </si>
   <si>
+    <t>イベントスクリプト：　しゅん</t>
+  </si>
+  <si>
     <t>テストプレイ：　しゅん</t>
   </si>
   <si>
@@ -644,6 +647,9 @@
       </rPr>
       <t>2dgames.jp</t>
     </r>
+  </si>
+  <si>
+    <t>Thank you for playing!</t>
   </si>
 </sst>
 </file>
@@ -3889,7 +3895,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3954,14 +3960,16 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" t="s" s="4">
+        <v>168</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -3969,7 +3977,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -3977,7 +3985,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -3985,7 +3993,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -3993,7 +4001,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -4001,7 +4009,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -4009,35 +4017,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" t="s" s="4">
-        <v>175</v>
-      </c>
+      <c r="B16" s="11"/>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="11"/>
+      <c r="B17" t="s" s="4">
+        <v>176</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="11"/>
+      <c r="B18" t="s" s="4">
+        <v>177</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -4045,7 +4055,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -4053,23 +4063,21 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" t="s" s="4">
-        <v>179</v>
-      </c>
+      <c r="B22" s="11"/>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="3">
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -4082,41 +4090,45 @@
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" t="s" s="4">
+        <v>182</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" t="s" s="4">
-        <v>181</v>
-      </c>
+      <c r="B26" s="11"/>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" t="s" s="4">
+        <v>183</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="11"/>
+      <c r="B28" t="s" s="4">
+        <v>184</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" t="s" s="4">
-        <v>182</v>
-      </c>
+      <c r="B29" s="11"/>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" t="s" s="4">
+        <v>185</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="3">
@@ -4129,7 +4141,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -4137,58 +4149,56 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="11"/>
+      <c r="B34" t="s" s="4">
+        <v>188</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="11"/>
+      <c r="B35" t="s" s="4">
+        <v>189</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" t="s" s="4">
-        <v>185</v>
-      </c>
+      <c r="B36" s="11"/>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="3">
         <v>35</v>
       </c>
-      <c r="B37" t="s" s="4">
-        <v>186</v>
-      </c>
+      <c r="B37" s="11"/>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" t="s" s="4">
-        <v>187</v>
-      </c>
+      <c r="B38" s="11"/>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="B39" t="s" s="4">
-        <v>188</v>
-      </c>
+      <c r="B39" s="11"/>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="11"/>
+      <c r="B40" t="s" s="4">
+        <v>190</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="3">
@@ -4212,15 +4222,21 @@
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" t="s" s="4">
-        <v>189</v>
+      <c r="B44" s="11"/>
+    </row>
+    <row r="45" ht="20" customHeight="1">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s" s="4">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B21" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="B23" r:id="rId2" location="" tooltip="" display=""/>
-    <hyperlink ref="B44" r:id="rId3" location="" tooltip="" display=""/>
+    <hyperlink ref="B19" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="B21" r:id="rId2" location="" tooltip="" display=""/>
+    <hyperlink ref="B40" r:id="rId3" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="193">
   <si>
     <t>id</t>
   </si>
@@ -498,6 +498,9 @@
   </si>
   <si>
     <t>オープニングデモを見ます</t>
+  </si>
+  <si>
+    <t>スタッフロールを見ます</t>
   </si>
   <si>
     <t>ゲームクリア</t>
@@ -3789,7 +3792,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>64</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3838,7 +3841,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -3846,7 +3849,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -3854,7 +3857,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -3862,7 +3865,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -3870,7 +3873,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -3878,7 +3881,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3927,7 +3930,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -3947,7 +3950,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -3961,7 +3964,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -3969,7 +3972,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -3977,7 +3980,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -3985,7 +3988,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -3993,7 +3996,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -4001,7 +4004,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -4009,7 +4012,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -4017,7 +4020,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -4031,7 +4034,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -4039,7 +4042,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -4047,7 +4050,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -4055,7 +4058,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -4063,7 +4066,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -4077,7 +4080,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -4091,7 +4094,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -4105,7 +4108,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -4113,7 +4116,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -4127,7 +4130,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -4141,7 +4144,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -4149,7 +4152,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -4157,7 +4160,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -4165,7 +4168,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -4197,7 +4200,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -4229,7 +4232,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="194">
   <si>
     <t>id</t>
   </si>
@@ -501,6 +501,9 @@
   </si>
   <si>
     <t>スタッフロールを見ます</t>
+  </si>
+  <si>
+    <t>ゲームプレイのログを見ます</t>
   </si>
   <si>
     <t>ゲームクリア</t>
@@ -3728,7 +3731,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3793,6 +3796,14 @@
       </c>
       <c r="B7" t="s" s="4">
         <v>160</v>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s" s="4">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3841,7 +3852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -3849,7 +3860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -3857,7 +3868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -3865,7 +3876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -3873,7 +3884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -3881,7 +3892,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3930,7 +3941,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -3950,7 +3961,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -3964,7 +3975,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -3972,7 +3983,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -3980,7 +3991,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -3988,7 +3999,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -3996,7 +4007,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -4004,7 +4015,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -4012,7 +4023,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -4020,7 +4031,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -4034,7 +4045,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -4042,7 +4053,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -4050,7 +4061,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -4058,7 +4069,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -4066,7 +4077,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -4080,7 +4091,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -4094,7 +4105,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -4108,7 +4119,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -4116,7 +4127,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -4130,7 +4141,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -4144,7 +4155,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -4152,7 +4163,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -4160,7 +4171,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -4168,7 +4179,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -4200,7 +4211,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -4232,7 +4243,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="195">
   <si>
     <t>id</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>ナイトメアの出現を&lt;val1&gt;ターン遅らせた</t>
+  </si>
+  <si>
+    <t>封印されているのでアイテムが使えない</t>
   </si>
   <si>
     <t>ダミー</t>
@@ -2676,7 +2679,7 @@
         <v>64</v>
       </c>
       <c r="C57" t="s" s="4">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -2684,7 +2687,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C58" t="s" s="4">
         <v>17</v>
@@ -2695,7 +2698,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s" s="4">
         <v>17</v>
@@ -2706,7 +2709,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s" s="4">
         <v>17</v>
@@ -2717,7 +2720,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s" s="4">
         <v>17</v>
@@ -2728,7 +2731,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s" s="4">
         <v>17</v>
@@ -2739,7 +2742,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C63" t="s" s="4">
         <v>17</v>
@@ -2750,7 +2753,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C64" t="s" s="4">
         <v>17</v>
@@ -2761,7 +2764,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C65" t="s" s="4">
         <v>17</v>
@@ -2772,7 +2775,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C66" t="s" s="4">
         <v>17</v>
@@ -2824,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2832,7 +2835,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2840,7 +2843,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2848,7 +2851,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2856,7 +2859,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2864,7 +2867,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2872,7 +2875,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2880,7 +2883,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2888,7 +2891,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2896,7 +2899,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2904,7 +2907,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2912,7 +2915,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2920,7 +2923,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2928,7 +2931,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2936,7 +2939,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2944,7 +2947,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2952,7 +2955,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2960,7 +2963,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2968,7 +2971,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -2976,7 +2979,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -2984,7 +2987,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -2992,7 +2995,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -3000,7 +3003,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -3008,7 +3011,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -3016,7 +3019,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -3024,7 +3027,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -3032,7 +3035,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -3040,7 +3043,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -3048,7 +3051,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -3056,7 +3059,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -3064,7 +3067,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -3072,7 +3075,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -3080,7 +3083,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3129,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -3137,7 +3140,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -3145,7 +3148,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -3153,7 +3156,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -3161,7 +3164,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -3169,7 +3172,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -3177,7 +3180,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -3185,7 +3188,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -3193,7 +3196,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -3201,7 +3204,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -3209,7 +3212,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -3217,7 +3220,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -3225,7 +3228,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -3233,7 +3236,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -3241,7 +3244,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -3249,7 +3252,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -3257,7 +3260,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -3265,7 +3268,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -3273,7 +3276,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -3281,7 +3284,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -3289,7 +3292,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -3297,7 +3300,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -3305,7 +3308,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -3313,7 +3316,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -3321,7 +3324,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -3329,7 +3332,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -3337,7 +3340,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -3345,7 +3348,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -3353,7 +3356,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -3361,7 +3364,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -3369,7 +3372,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -3377,7 +3380,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -3385,7 +3388,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -3393,7 +3396,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -3401,7 +3404,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -3409,7 +3412,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -3417,7 +3420,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -3425,7 +3428,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -3433,7 +3436,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -3441,7 +3444,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -3449,7 +3452,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -3457,7 +3460,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -3465,7 +3468,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -3473,7 +3476,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -3481,7 +3484,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -3489,7 +3492,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -3497,7 +3500,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -3505,7 +3508,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -3513,7 +3516,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -3521,7 +3524,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -3529,7 +3532,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -3537,7 +3540,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -3545,7 +3548,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -3553,7 +3556,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -3561,7 +3564,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -3569,7 +3572,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -3577,7 +3580,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -3585,7 +3588,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -3593,7 +3596,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -3601,7 +3604,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -3609,7 +3612,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -3617,7 +3620,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -3625,7 +3628,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -3633,7 +3636,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3682,7 +3685,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -3690,7 +3693,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -3698,7 +3701,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -3706,7 +3709,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -3714,7 +3717,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3763,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -3771,7 +3774,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -3779,7 +3782,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -3787,7 +3790,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -3795,7 +3798,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -3803,7 +3806,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3852,7 +3855,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -3860,7 +3863,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -3868,7 +3871,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -3876,7 +3879,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -3884,7 +3887,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -3892,7 +3895,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3941,7 +3944,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -3961,7 +3964,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -3975,7 +3978,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -3983,7 +3986,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -3991,7 +3994,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -3999,7 +4002,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -4007,7 +4010,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -4015,7 +4018,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -4023,7 +4026,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -4031,7 +4034,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -4045,7 +4048,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -4053,7 +4056,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -4061,7 +4064,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -4069,7 +4072,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -4077,7 +4080,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -4091,7 +4094,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -4105,7 +4108,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -4119,7 +4122,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -4127,7 +4130,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -4141,7 +4144,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -4155,7 +4158,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -4163,7 +4166,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -4171,7 +4174,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -4179,7 +4182,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -4211,7 +4214,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -4243,7 +4246,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -13,12 +13,13 @@
     <sheet name="title" sheetId="5" r:id="rId8"/>
     <sheet name="deathtype" sheetId="6" r:id="rId9"/>
     <sheet name="staffroll" sheetId="7" r:id="rId10"/>
+    <sheet name="statistics" sheetId="8" r:id="rId11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
   <si>
     <t>id</t>
   </si>
@@ -506,7 +507,7 @@
     <t>スタッフロールを見ます</t>
   </si>
   <si>
-    <t>ゲームプレイのログを見ます</t>
+    <t>ゲームプレイの情報を見ます</t>
   </si>
   <si>
     <t>ゲームクリア</t>
@@ -546,9 +547,6 @@
   </si>
   <si>
     <t>　　　　　　　　　　しゅん</t>
-  </si>
-  <si>
-    <t>UIデザイン：　しゅん</t>
   </si>
   <si>
     <t>イベント画像：　しゅん</t>
@@ -612,16 +610,10 @@
     </r>
   </si>
   <si>
-    <t>プログラム：　しゅん</t>
-  </si>
-  <si>
-    <t>サウンド：　しゅん</t>
+    <t>プログラム・サウンド：　しゅん</t>
   </si>
   <si>
     <t>シナリオ：　炎堂たつや</t>
-  </si>
-  <si>
-    <t>　　　　　　しゅん</t>
   </si>
   <si>
     <t>イベントスクリプト：　しゅん</t>
@@ -659,6 +651,33 @@
   </si>
   <si>
     <t>Thank you for playing!</t>
+  </si>
+  <si>
+    <t>プレイ時間</t>
+  </si>
+  <si>
+    <t>プレイ回数</t>
+  </si>
+  <si>
+    <t>ゲームクリア回数</t>
+  </si>
+  <si>
+    <t>ハイスコア</t>
+  </si>
+  <si>
+    <t>フロア最大到達数</t>
+  </si>
+  <si>
+    <t>最大レベル</t>
+  </si>
+  <si>
+    <t>最大所持金</t>
+  </si>
+  <si>
+    <t>アイテム所持限度の最大数</t>
+  </si>
+  <si>
+    <t>敵の撃破数</t>
   </si>
 </sst>
 </file>
@@ -755,7 +774,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -790,6 +809,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4033,9 +4055,7 @@
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" t="s" s="4">
-        <v>178</v>
-      </c>
+      <c r="B15" s="11"/>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="3">
@@ -4048,7 +4068,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -4056,7 +4076,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -4064,7 +4084,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -4072,7 +4092,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -4080,7 +4100,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -4093,23 +4113,21 @@
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" t="s" s="4">
-        <v>184</v>
-      </c>
+      <c r="B23" s="11"/>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" t="s" s="4">
+        <v>183</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" t="s" s="4">
-        <v>185</v>
-      </c>
+      <c r="B25" s="11"/>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="3">
@@ -4122,7 +4140,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -4130,7 +4148,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -4143,9 +4161,7 @@
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" t="s" s="4">
-        <v>188</v>
-      </c>
+      <c r="B30" s="11"/>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="3">
@@ -4158,7 +4174,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -4166,7 +4182,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -4174,7 +4190,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -4182,7 +4198,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -4214,7 +4230,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -4246,7 +4262,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4261,4 +4277,117 @@
     <oddFooter>&amp;L&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="42.25" style="12" customWidth="1"/>
+    <col min="3" max="256" width="12.25" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="14.95" customHeight="1">
+      <c r="A2" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s" s="4">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s" s="4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s" s="4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" s="4">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s" s="4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s" s="4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s" s="4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s" s="4">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
   <si>
     <t>id</t>
   </si>
@@ -678,6 +678,9 @@
   </si>
   <si>
     <t>敵の撃破数</t>
+  </si>
+  <si>
+    <t>ナイトメアの撃破数</t>
   </si>
 </sst>
 </file>
@@ -4284,7 +4287,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -4383,6 +4386,14 @@
         <v>200</v>
       </c>
     </row>
+    <row r="12" ht="20" customHeight="1">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s" s="4">
+        <v>201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="203">
   <si>
     <t>id</t>
   </si>
@@ -653,7 +653,7 @@
     <t>Thank you for playing!</t>
   </si>
   <si>
-    <t>プレイ時間</t>
+    <t>総プレイ時間</t>
   </si>
   <si>
     <t>プレイ回数</t>
@@ -662,6 +662,15 @@
     <t>ゲームクリア回数</t>
   </si>
   <si>
+    <t>敵の撃破数</t>
+  </si>
+  <si>
+    <t>ナイトメアの撃破数</t>
+  </si>
+  <si>
+    <t>拾ったお金の総額</t>
+  </si>
+  <si>
     <t>ハイスコア</t>
   </si>
   <si>
@@ -675,12 +684,6 @@
   </si>
   <si>
     <t>アイテム所持限度の最大数</t>
-  </si>
-  <si>
-    <t>敵の撃破数</t>
-  </si>
-  <si>
-    <t>ナイトメアの撃破数</t>
   </si>
 </sst>
 </file>
@@ -4287,7 +4290,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -4394,6 +4397,14 @@
         <v>201</v>
       </c>
     </row>
+    <row r="13" ht="20" customHeight="1">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s" s="4">
+        <v>202</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -668,7 +668,7 @@
     <t>ナイトメアの撃破数</t>
   </si>
   <si>
-    <t>拾ったお金の総額</t>
+    <t>お金の獲得総額</t>
   </si>
   <si>
     <t>ハイスコア</t>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
   <si>
     <t>id</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>封印されているのでアイテムが使えない</t>
+  </si>
+  <si>
+    <t>このフロアでは青オーブは使えない</t>
   </si>
   <si>
     <t>ダミー</t>
@@ -2726,7 +2729,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s" s="4">
         <v>17</v>
@@ -2737,7 +2740,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s" s="4">
         <v>17</v>
@@ -2748,7 +2751,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s" s="4">
         <v>17</v>
@@ -2759,7 +2762,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s" s="4">
         <v>17</v>
@@ -2770,7 +2773,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s" s="4">
         <v>17</v>
@@ -2781,7 +2784,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s" s="4">
         <v>17</v>
@@ -2792,7 +2795,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s" s="4">
         <v>17</v>
@@ -2803,7 +2806,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C66" t="s" s="4">
         <v>17</v>
@@ -2855,7 +2858,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2863,7 +2866,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2871,7 +2874,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -2879,7 +2882,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -2887,7 +2890,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2895,7 +2898,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2903,7 +2906,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2911,7 +2914,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2919,7 +2922,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2927,7 +2930,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2935,7 +2938,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -2943,7 +2946,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -2951,7 +2954,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -2959,7 +2962,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -2967,7 +2970,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -2975,7 +2978,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -2983,7 +2986,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -2991,7 +2994,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -2999,7 +3002,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -3007,7 +3010,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -3015,7 +3018,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -3023,7 +3026,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -3031,7 +3034,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -3039,7 +3042,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -3047,7 +3050,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -3055,7 +3058,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -3063,7 +3066,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -3071,7 +3074,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -3079,7 +3082,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -3087,7 +3090,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -3095,7 +3098,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -3103,7 +3106,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -3111,7 +3114,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3160,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -3168,7 +3171,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -3176,7 +3179,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -3184,7 +3187,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -3192,7 +3195,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -3200,7 +3203,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -3208,7 +3211,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -3216,7 +3219,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -3224,7 +3227,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -3232,7 +3235,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -3240,7 +3243,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -3248,7 +3251,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -3256,7 +3259,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -3264,7 +3267,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -3272,7 +3275,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -3280,7 +3283,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -3288,7 +3291,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -3296,7 +3299,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -3304,7 +3307,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -3312,7 +3315,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -3320,7 +3323,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -3328,7 +3331,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -3336,7 +3339,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -3344,7 +3347,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -3352,7 +3355,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -3360,7 +3363,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -3368,7 +3371,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -3376,7 +3379,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -3384,7 +3387,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -3392,7 +3395,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -3400,7 +3403,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -3408,7 +3411,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -3416,7 +3419,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -3424,7 +3427,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -3432,7 +3435,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -3440,7 +3443,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -3448,7 +3451,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -3456,7 +3459,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -3464,7 +3467,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -3472,7 +3475,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -3480,7 +3483,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -3488,7 +3491,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -3496,7 +3499,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -3504,7 +3507,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -3512,7 +3515,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -3520,7 +3523,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -3528,7 +3531,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -3536,7 +3539,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -3544,7 +3547,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -3552,7 +3555,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -3560,7 +3563,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
@@ -3568,7 +3571,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
@@ -3576,7 +3579,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
@@ -3584,7 +3587,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
@@ -3592,7 +3595,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
@@ -3600,7 +3603,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
@@ -3608,7 +3611,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
@@ -3616,7 +3619,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
@@ -3624,7 +3627,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
@@ -3632,7 +3635,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
@@ -3640,7 +3643,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
@@ -3648,7 +3651,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
@@ -3656,7 +3659,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
@@ -3664,7 +3667,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3713,7 +3716,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -3721,7 +3724,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -3729,7 +3732,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -3737,7 +3740,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -3745,7 +3748,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3794,7 +3797,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -3802,7 +3805,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -3810,7 +3813,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -3818,7 +3821,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -3826,7 +3829,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -3834,7 +3837,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3883,7 +3886,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -3891,7 +3894,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -3899,7 +3902,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -3907,7 +3910,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -3915,7 +3918,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -3923,7 +3926,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3972,7 +3975,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -3992,7 +3995,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -4006,7 +4009,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -4014,7 +4017,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -4022,7 +4025,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -4030,7 +4033,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -4038,7 +4041,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -4046,7 +4049,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -4054,7 +4057,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -4074,7 +4077,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -4082,7 +4085,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -4090,7 +4093,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -4098,7 +4101,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -4106,7 +4109,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -4126,7 +4129,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -4146,7 +4149,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -4154,7 +4157,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -4180,7 +4183,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -4188,7 +4191,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -4196,7 +4199,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -4204,7 +4207,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -4236,7 +4239,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -4268,7 +4271,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4322,7 +4325,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -4330,7 +4333,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -4338,7 +4341,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -4346,7 +4349,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -4354,7 +4357,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -4362,7 +4365,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -4370,7 +4373,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -4378,7 +4381,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -4386,7 +4389,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -4394,7 +4397,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -4402,7 +4405,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/docs/message.xlsx
+++ b/docs/message.xlsx
@@ -11,15 +11,16 @@
     <sheet name="hint" sheetId="3" r:id="rId6"/>
     <sheet name="nameentry" sheetId="4" r:id="rId7"/>
     <sheet name="title" sheetId="5" r:id="rId8"/>
-    <sheet name="deathtype" sheetId="6" r:id="rId9"/>
-    <sheet name="staffroll" sheetId="7" r:id="rId10"/>
-    <sheet name="statistics" sheetId="8" r:id="rId11"/>
+    <sheet name="stats" sheetId="6" r:id="rId9"/>
+    <sheet name="deathtype" sheetId="7" r:id="rId10"/>
+    <sheet name="staffroll" sheetId="8" r:id="rId11"/>
+    <sheet name="statistics" sheetId="9" r:id="rId12"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
   <si>
     <t>id</t>
   </si>
@@ -511,6 +512,21 @@
   </si>
   <si>
     <t>ゲームプレイの情報を見ます</t>
+  </si>
+  <si>
+    <t>プレイ情報を見ます</t>
+  </si>
+  <si>
+    <t>実績データを閲覧します</t>
+  </si>
+  <si>
+    <t>ゲームプレイ履歴を見ます</t>
+  </si>
+  <si>
+    <t>倒した敵の情報を見ます</t>
+  </si>
+  <si>
+    <t>獲得したアイテムを見ます</t>
   </si>
   <si>
     <t>ゲームクリア</t>
@@ -783,7 +799,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -797,6 +813,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -3926,7 +3945,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3943,7 +3962,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3975,41 +3994,130 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" t="s" s="4">
+        <v>170</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" t="s" s="4">
+        <v>171</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" t="s" s="4">
+        <v>173</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>172</v>
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="42.25" style="11" customWidth="1"/>
+    <col min="3" max="256" width="12.25" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="14.95" customHeight="1">
+      <c r="A2" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s" s="4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12"/>
+    </row>
+    <row r="5" ht="20" customHeight="1">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12"/>
+    </row>
+    <row r="6" ht="20" customHeight="1">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12"/>
+    </row>
+    <row r="8" ht="20" customHeight="1">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s" s="4">
+        <v>177</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -4017,7 +4125,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -4025,7 +4133,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -4033,7 +4141,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -4041,7 +4149,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -4049,7 +4157,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -4057,27 +4165,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="12"/>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="11"/>
+      <c r="B16" s="12"/>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -4085,7 +4193,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -4093,7 +4201,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -4101,7 +4209,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -4109,47 +4217,47 @@
         <v>19</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="12"/>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="11"/>
+      <c r="B23" s="12"/>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="12"/>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="12"/>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="3">
         <v>25</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -4157,33 +4265,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="11"/>
+      <c r="B29" s="12"/>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="12"/>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="11"/>
+      <c r="B31" s="12"/>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -4191,7 +4299,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -4199,7 +4307,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -4207,71 +4315,71 @@
         <v>33</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="11"/>
+      <c r="B36" s="12"/>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="3">
         <v>35</v>
       </c>
-      <c r="B37" s="11"/>
+      <c r="B37" s="12"/>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="11"/>
+      <c r="B38" s="12"/>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="B39" s="11"/>
+      <c r="B39" s="12"/>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="3">
         <v>38</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="3">
         <v>39</v>
       </c>
-      <c r="B41" s="11"/>
+      <c r="B41" s="12"/>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="11"/>
+      <c r="B42" s="12"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="3">
         <v>41</v>
       </c>
-      <c r="B43" s="11"/>
+      <c r="B43" s="12"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="11"/>
+      <c r="B44" s="12"/>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="3">
         <v>43</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4288,7 +4396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4299,9 +4407,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="12" customWidth="1"/>
-    <col min="2" max="2" width="42.25" style="12" customWidth="1"/>
-    <col min="3" max="256" width="12.25" style="12" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="13" customWidth="1"/>
+    <col min="2" max="2" width="42.25" style="13" customWidth="1"/>
+    <col min="3" max="256" width="12.25" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.95" customHeight="1">
@@ -4325,7 +4433,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -4333,7 +4441,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -4341,7 +4449,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -4349,7 +4457,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -4357,7 +4465,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -4365,7 +4473,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -4373,7 +4481,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -4381,7 +4489,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -4389,7 +4497,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -4397,7 +4505,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -4405,7 +4513,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
